--- a/Stocks/PLUG/PLUG_HighLow.xlsx
+++ b/Stocks/PLUG/PLUG_HighLow.xlsx
@@ -417,1093 +417,1093 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>31</v>
+        <v>32.20000076293945</v>
       </c>
       <c r="B2">
-        <v>34.18000030517578</v>
+        <v>33.06000137329102</v>
       </c>
       <c r="C2">
-        <v>30.10000038146973</v>
+        <v>31.68000030517578</v>
       </c>
       <c r="D2">
-        <v>34.09999847412109</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="E2">
-        <v>34.09999847412109</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="F2">
-        <v>35469800</v>
+        <v>19934200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>34.36999893188477</v>
+        <v>31.36000061035156</v>
       </c>
       <c r="B3">
-        <v>35.02000045776367</v>
+        <v>31.45999908447266</v>
       </c>
       <c r="C3">
-        <v>32.40000152587891</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="D3">
-        <v>34.02999877929688</v>
+        <v>29.68000030517578</v>
       </c>
       <c r="E3">
-        <v>34.02999877929688</v>
+        <v>29.68000030517578</v>
       </c>
       <c r="F3">
-        <v>20150000</v>
+        <v>43878900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>33.70000076293945</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="B4">
-        <v>33.86999893188477</v>
+        <v>29.5</v>
       </c>
       <c r="C4">
-        <v>30.72999954223633</v>
+        <v>28.01000022888184</v>
       </c>
       <c r="D4">
-        <v>30.78000068664551</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="E4">
-        <v>30.78000068664551</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="F4">
-        <v>28952900</v>
+        <v>40036800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>30.8700008392334</v>
+        <v>30.18000030517578</v>
       </c>
       <c r="B5">
-        <v>34.22000122070312</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="C5">
-        <v>30.23999977111816</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="D5">
-        <v>34.04000091552734</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="E5">
-        <v>34.04000091552734</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="F5">
-        <v>34914000</v>
+        <v>30642300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>36.31999969482422</v>
+        <v>28.75</v>
       </c>
       <c r="B6">
-        <v>36.40000152587891</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="C6">
-        <v>34.36000061035156</v>
+        <v>24.61000061035156</v>
       </c>
       <c r="D6">
-        <v>35.84000015258789</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="E6">
-        <v>35.84000015258789</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="F6">
-        <v>40440600</v>
+        <v>69174300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>37.11999893188477</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="B7">
-        <v>37.75</v>
+        <v>27.57999992370605</v>
       </c>
       <c r="C7">
-        <v>35.02999877929688</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D7">
-        <v>35.2599983215332</v>
+        <v>27.23999977111816</v>
       </c>
       <c r="E7">
-        <v>35.2599983215332</v>
+        <v>27.23999977111816</v>
       </c>
       <c r="F7">
-        <v>29543600</v>
+        <v>50767700</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>35.97999954223633</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="B8">
-        <v>36.13000106811523</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="C8">
-        <v>32.91999816894531</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="D8">
-        <v>33.43999862670898</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="E8">
-        <v>33.43999862670898</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="F8">
-        <v>28426000</v>
+        <v>36094600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>33.4900016784668</v>
+        <v>25.32999992370605</v>
       </c>
       <c r="B9">
-        <v>35.20000076293945</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C9">
-        <v>33.25</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="D9">
-        <v>34.66999816894531</v>
+        <v>25.25</v>
       </c>
       <c r="E9">
-        <v>34.66999816894531</v>
+        <v>25.25</v>
       </c>
       <c r="F9">
-        <v>23517000</v>
+        <v>40063500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>34.04999923706055</v>
+        <v>24.55999946594238</v>
       </c>
       <c r="B10">
-        <v>34.15999984741211</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="C10">
-        <v>31.54999923706055</v>
+        <v>23.90999984741211</v>
       </c>
       <c r="D10">
-        <v>31.95999908447266</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="E10">
-        <v>31.95999908447266</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="F10">
-        <v>34420500</v>
+        <v>39428400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>32.04999923706055</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="B11">
-        <v>33.47999954223633</v>
+        <v>28.48999977111816</v>
       </c>
       <c r="C11">
-        <v>31.8700008392334</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="D11">
-        <v>32.61999893188477</v>
+        <v>26.5</v>
       </c>
       <c r="E11">
-        <v>32.61999893188477</v>
+        <v>26.5</v>
       </c>
       <c r="F11">
-        <v>27881200</v>
+        <v>48564100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>32.20000076293945</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B12">
-        <v>33.06000137329102</v>
+        <v>28.13999938964844</v>
       </c>
       <c r="C12">
-        <v>31.68000030517578</v>
+        <v>26.31999969482422</v>
       </c>
       <c r="D12">
-        <v>32.29999923706055</v>
+        <v>27.97999954223633</v>
       </c>
       <c r="E12">
-        <v>32.29999923706055</v>
+        <v>27.97999954223633</v>
       </c>
       <c r="F12">
-        <v>19934200</v>
+        <v>28087200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>31.36000061035156</v>
+        <v>28.73999977111816</v>
       </c>
       <c r="B13">
-        <v>31.45999908447266</v>
+        <v>29.55999946594238</v>
       </c>
       <c r="C13">
-        <v>28.77000045776367</v>
+        <v>27.27000045776367</v>
       </c>
       <c r="D13">
-        <v>29.68000030517578</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="E13">
-        <v>29.68000030517578</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="F13">
-        <v>43878900</v>
+        <v>45522200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>28.77000045776367</v>
+        <v>29.43000030517578</v>
       </c>
       <c r="B14">
-        <v>29.5</v>
+        <v>29.55999946594238</v>
       </c>
       <c r="C14">
-        <v>28.01000022888184</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="D14">
-        <v>29.29000091552734</v>
+        <v>28.54999923706055</v>
       </c>
       <c r="E14">
-        <v>29.29000091552734</v>
+        <v>28.54999923706055</v>
       </c>
       <c r="F14">
-        <v>40036800</v>
+        <v>27416600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>30.18000030517578</v>
+        <v>27.92000007629395</v>
       </c>
       <c r="B15">
-        <v>30.69000053405762</v>
+        <v>29.07999992370605</v>
       </c>
       <c r="C15">
-        <v>28.27000045776367</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="D15">
-        <v>28.38999938964844</v>
+        <v>28.86000061035156</v>
       </c>
       <c r="E15">
-        <v>28.38999938964844</v>
+        <v>28.86000061035156</v>
       </c>
       <c r="F15">
-        <v>30642300</v>
+        <v>24936900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>28.75</v>
+        <v>30.04999923706055</v>
       </c>
       <c r="B16">
-        <v>28.77000045776367</v>
+        <v>30.34000015258789</v>
       </c>
       <c r="C16">
-        <v>24.61000061035156</v>
+        <v>27.97999954223633</v>
       </c>
       <c r="D16">
-        <v>26.09000015258789</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="E16">
-        <v>26.09000015258789</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="F16">
-        <v>69174300</v>
+        <v>35927300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>25.79999923706055</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="B17">
-        <v>27.57999992370605</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="C17">
-        <v>25.45000076293945</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="D17">
-        <v>27.23999977111816</v>
+        <v>28.51000022888184</v>
       </c>
       <c r="E17">
-        <v>27.23999977111816</v>
+        <v>28.51000022888184</v>
       </c>
       <c r="F17">
-        <v>50767700</v>
+        <v>27026400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>26.70000076293945</v>
+        <v>28.54000091552734</v>
       </c>
       <c r="B18">
-        <v>26.89999961853027</v>
+        <v>28.81999969482422</v>
       </c>
       <c r="C18">
-        <v>25.01000022888184</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D18">
-        <v>25.23999977111816</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="E18">
-        <v>25.23999977111816</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="F18">
-        <v>36094600</v>
+        <v>30448600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>25.32999992370605</v>
+        <v>24.86000061035156</v>
       </c>
       <c r="B19">
-        <v>26.36000061035156</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C19">
-        <v>24.6299991607666</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="D19">
-        <v>25.25</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="E19">
-        <v>25.25</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="F19">
-        <v>40063500</v>
+        <v>44542700</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>24.55999946594238</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="B20">
-        <v>27.13999938964844</v>
+        <v>25.6299991607666</v>
       </c>
       <c r="C20">
-        <v>23.90999984741211</v>
+        <v>24.11000061035156</v>
       </c>
       <c r="D20">
-        <v>27.13999938964844</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="E20">
-        <v>27.13999938964844</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="F20">
-        <v>39428400</v>
+        <v>29291900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>28.15999984741211</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="B21">
-        <v>28.48999977111816</v>
+        <v>23.61000061035156</v>
       </c>
       <c r="C21">
-        <v>26.23999977111816</v>
+        <v>21.57999992370605</v>
       </c>
       <c r="D21">
-        <v>26.5</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="E21">
-        <v>26.5</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="F21">
-        <v>48564100</v>
+        <v>45365300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>26.88999938964844</v>
+        <v>22.97999954223633</v>
       </c>
       <c r="B22">
-        <v>28.13999938964844</v>
+        <v>23.93000030517578</v>
       </c>
       <c r="C22">
-        <v>26.31999969482422</v>
+        <v>22.59000015258789</v>
       </c>
       <c r="D22">
-        <v>27.97999954223633</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="E22">
-        <v>27.97999954223633</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="F22">
-        <v>28087200</v>
+        <v>21640900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>28.73999977111816</v>
+        <v>22.65999984741211</v>
       </c>
       <c r="B23">
-        <v>29.55999946594238</v>
+        <v>22.65999984741211</v>
       </c>
       <c r="C23">
-        <v>27.27000045776367</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D23">
-        <v>29.29000091552734</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="E23">
-        <v>29.29000091552734</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="F23">
-        <v>45522200</v>
+        <v>39035300</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>29.43000030517578</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="B24">
-        <v>29.55999946594238</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="C24">
-        <v>28.42000007629395</v>
+        <v>18.46999931335449</v>
       </c>
       <c r="D24">
-        <v>28.54999923706055</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="E24">
-        <v>28.54999923706055</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="F24">
-        <v>27416600</v>
+        <v>83706100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>27.92000007629395</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="B25">
-        <v>29.07999992370605</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="C25">
-        <v>27.54999923706055</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D25">
-        <v>28.86000061035156</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="E25">
-        <v>28.86000061035156</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="F25">
-        <v>24936900</v>
+        <v>47491900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>30.04999923706055</v>
+        <v>22.73999977111816</v>
       </c>
       <c r="B26">
-        <v>30.34000015258789</v>
+        <v>23.61000061035156</v>
       </c>
       <c r="C26">
-        <v>27.97999954223633</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D26">
-        <v>28.27000045776367</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="E26">
-        <v>28.27000045776367</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="F26">
-        <v>35927300</v>
+        <v>38358900</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>27.77000045776367</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B27">
-        <v>29.20000076293945</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="C27">
-        <v>27.60000038146973</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="D27">
-        <v>28.51000022888184</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="E27">
-        <v>28.51000022888184</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="F27">
-        <v>27026400</v>
+        <v>82513500</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>28.54000091552734</v>
+        <v>24.25</v>
       </c>
       <c r="B28">
-        <v>28.81999969482422</v>
+        <v>25.46999931335449</v>
       </c>
       <c r="C28">
-        <v>26.21999931335449</v>
+        <v>23.93000030517578</v>
       </c>
       <c r="D28">
-        <v>26.6299991607666</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="E28">
-        <v>26.6299991607666</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="F28">
-        <v>30448600</v>
+        <v>40244200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>24.86000061035156</v>
+        <v>25.30999946594238</v>
       </c>
       <c r="B29">
-        <v>25.40999984741211</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="C29">
-        <v>24.03000068664551</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="D29">
-        <v>24.60000038146973</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="E29">
-        <v>24.60000038146973</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="F29">
-        <v>44542700</v>
+        <v>59394200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>25.05999946594238</v>
+        <v>26.30999946594238</v>
       </c>
       <c r="B30">
-        <v>25.6299991607666</v>
+        <v>27.65999984741211</v>
       </c>
       <c r="C30">
-        <v>24.11000061035156</v>
+        <v>25.75</v>
       </c>
       <c r="D30">
-        <v>24.29000091552734</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E30">
-        <v>24.29000091552734</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F30">
-        <v>29291900</v>
+        <v>49945900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>23.17000007629395</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="B31">
-        <v>23.61000061035156</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="C31">
-        <v>21.57999992370605</v>
+        <v>26.59000015258789</v>
       </c>
       <c r="D31">
-        <v>22.55999946594238</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E31">
-        <v>22.55999946594238</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F31">
-        <v>45365300</v>
+        <v>39090800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>22.97999954223633</v>
+        <v>27.73999977111816</v>
       </c>
       <c r="B32">
-        <v>23.93000030517578</v>
+        <v>28.31999969482422</v>
       </c>
       <c r="C32">
-        <v>22.59000015258789</v>
+        <v>26.81999969482422</v>
       </c>
       <c r="D32">
-        <v>23.04999923706055</v>
+        <v>27.88999938964844</v>
       </c>
       <c r="E32">
-        <v>23.04999923706055</v>
+        <v>27.88999938964844</v>
       </c>
       <c r="F32">
-        <v>21640900</v>
+        <v>37012600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>22.65999984741211</v>
+        <v>27.95000076293945</v>
       </c>
       <c r="B33">
-        <v>22.65999984741211</v>
+        <v>27.96999931335449</v>
       </c>
       <c r="C33">
-        <v>20.04999923706055</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="D33">
-        <v>20.06999969482422</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="E33">
-        <v>20.06999969482422</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="F33">
-        <v>39035300</v>
+        <v>26736700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18.60000038146973</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="B34">
-        <v>23.72999954223633</v>
+        <v>28.21999931335449</v>
       </c>
       <c r="C34">
-        <v>18.46999931335449</v>
+        <v>26.65999984741211</v>
       </c>
       <c r="D34">
-        <v>23.60000038146973</v>
+        <v>27.80999946594238</v>
       </c>
       <c r="E34">
-        <v>23.60000038146973</v>
+        <v>27.80999946594238</v>
       </c>
       <c r="F34">
-        <v>83706100</v>
+        <v>31182900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>22.78000068664551</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="B35">
-        <v>23.59000015258789</v>
+        <v>29.88999938964844</v>
       </c>
       <c r="C35">
-        <v>22.1200008392334</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="D35">
-        <v>22.23999977111816</v>
+        <v>29.69000053405762</v>
       </c>
       <c r="E35">
-        <v>22.23999977111816</v>
+        <v>29.69000053405762</v>
       </c>
       <c r="F35">
-        <v>47491900</v>
+        <v>27740500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>22.73999977111816</v>
+        <v>30.02000045776367</v>
       </c>
       <c r="B36">
-        <v>23.61000061035156</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="C36">
-        <v>21.29999923706055</v>
+        <v>28.8799991607666</v>
       </c>
       <c r="D36">
-        <v>21.95999908447266</v>
+        <v>29.93000030517578</v>
       </c>
       <c r="E36">
-        <v>21.95999908447266</v>
+        <v>29.93000030517578</v>
       </c>
       <c r="F36">
-        <v>38358900</v>
+        <v>32422400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>25.04999923706055</v>
+        <v>30.79000091552734</v>
       </c>
       <c r="B37">
-        <v>25.52000045776367</v>
+        <v>31.81999969482422</v>
       </c>
       <c r="C37">
-        <v>23.65999984741211</v>
+        <v>30.20999908447266</v>
       </c>
       <c r="D37">
-        <v>24.57999992370605</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="E37">
-        <v>24.57999992370605</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="F37">
-        <v>82513500</v>
+        <v>40289300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>24.25</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="B38">
-        <v>25.46999931335449</v>
+        <v>31.5</v>
       </c>
       <c r="C38">
-        <v>23.93000030517578</v>
+        <v>29.81999969482422</v>
       </c>
       <c r="D38">
-        <v>24.94000053405762</v>
+        <v>30.88999938964844</v>
       </c>
       <c r="E38">
-        <v>24.94000053405762</v>
+        <v>30.88999938964844</v>
       </c>
       <c r="F38">
-        <v>40244200</v>
+        <v>23920100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>25.30999946594238</v>
+        <v>30.80999946594238</v>
       </c>
       <c r="B39">
-        <v>27.79000091552734</v>
+        <v>30.88999938964844</v>
       </c>
       <c r="C39">
-        <v>24.76000022888184</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="D39">
-        <v>27.02000045776367</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="E39">
-        <v>27.02000045776367</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="F39">
-        <v>59394200</v>
+        <v>25008300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>26.30999946594238</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="B40">
-        <v>27.65999984741211</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="C40">
-        <v>25.75</v>
+        <v>29.80999946594238</v>
       </c>
       <c r="D40">
-        <v>27.46999931335449</v>
+        <v>30.03000068664551</v>
       </c>
       <c r="E40">
-        <v>27.46999931335449</v>
+        <v>30.03000068664551</v>
       </c>
       <c r="F40">
-        <v>49945900</v>
+        <v>29621100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>28.20000076293945</v>
+        <v>30.47999954223633</v>
       </c>
       <c r="B41">
-        <v>28.6299991607666</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="C41">
-        <v>26.59000015258789</v>
+        <v>30.31999969482422</v>
       </c>
       <c r="D41">
-        <v>27.46999931335449</v>
+        <v>30.57999992370605</v>
       </c>
       <c r="E41">
-        <v>27.46999931335449</v>
+        <v>30.57999992370605</v>
       </c>
       <c r="F41">
-        <v>39090800</v>
+        <v>26662200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>27.73999977111816</v>
+        <v>30.75</v>
       </c>
       <c r="B42">
-        <v>28.31999969482422</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="C42">
-        <v>26.81999969482422</v>
+        <v>29.96999931335449</v>
       </c>
       <c r="D42">
-        <v>27.88999938964844</v>
+        <v>32.84999847412109</v>
       </c>
       <c r="E42">
-        <v>27.88999938964844</v>
+        <v>32.84999847412109</v>
       </c>
       <c r="F42">
-        <v>37012600</v>
+        <v>32097800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>27.95000076293945</v>
+        <v>33.77000045776367</v>
       </c>
       <c r="B43">
-        <v>27.96999931335449</v>
+        <v>34.38000106811523</v>
       </c>
       <c r="C43">
-        <v>26.70999908447266</v>
+        <v>32.34999847412109</v>
       </c>
       <c r="D43">
-        <v>27.20000076293945</v>
+        <v>33.4900016784668</v>
       </c>
       <c r="E43">
-        <v>27.20000076293945</v>
+        <v>33.4900016784668</v>
       </c>
       <c r="F43">
-        <v>26736700</v>
+        <v>31396000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>26.8700008392334</v>
+        <v>33.38999938964844</v>
       </c>
       <c r="B44">
-        <v>28.21999931335449</v>
+        <v>33.88000106811523</v>
       </c>
       <c r="C44">
-        <v>26.65999984741211</v>
+        <v>32.31999969482422</v>
       </c>
       <c r="D44">
-        <v>27.80999946594238</v>
+        <v>32.43000030517578</v>
       </c>
       <c r="E44">
-        <v>27.80999946594238</v>
+        <v>32.43000030517578</v>
       </c>
       <c r="F44">
-        <v>31182900</v>
+        <v>17633400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>28.1299991607666</v>
+        <v>31.19000053405762</v>
       </c>
       <c r="B45">
-        <v>29.88999938964844</v>
+        <v>32.38999938964844</v>
       </c>
       <c r="C45">
-        <v>27.93000030517578</v>
+        <v>31.02000045776367</v>
       </c>
       <c r="D45">
-        <v>29.69000053405762</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="E45">
-        <v>29.69000053405762</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="F45">
-        <v>27740500</v>
+        <v>19942500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>30.02000045776367</v>
+        <v>31.32999992370605</v>
       </c>
       <c r="B46">
-        <v>30.09000015258789</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="C46">
-        <v>28.8799991607666</v>
+        <v>31.27000045776367</v>
       </c>
       <c r="D46">
-        <v>29.93000030517578</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="E46">
-        <v>29.93000030517578</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="F46">
-        <v>32422400</v>
+        <v>21806500</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>30.79000091552734</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>31.81999969482422</v>
+        <v>32.34000015258789</v>
       </c>
       <c r="C47">
-        <v>30.20999908447266</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="D47">
-        <v>30.70000076293945</v>
+        <v>30.56999969482422</v>
       </c>
       <c r="E47">
-        <v>30.70000076293945</v>
+        <v>30.56999969482422</v>
       </c>
       <c r="F47">
-        <v>40289300</v>
+        <v>18221500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>31.10000038146973</v>
+        <v>30.20000076293945</v>
       </c>
       <c r="B48">
-        <v>31.5</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="C48">
-        <v>29.81999969482422</v>
+        <v>28.75</v>
       </c>
       <c r="D48">
-        <v>30.88999938964844</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="E48">
-        <v>30.88999938964844</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="F48">
-        <v>23920100</v>
+        <v>23496600</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>30.80999946594238</v>
+        <v>28.5</v>
       </c>
       <c r="B49">
-        <v>30.88999938964844</v>
+        <v>29.72999954223633</v>
       </c>
       <c r="C49">
-        <v>29.85000038146973</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="D49">
-        <v>30.69000053405762</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="E49">
-        <v>30.69000053405762</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="F49">
-        <v>25008300</v>
+        <v>23531600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>30.67000007629395</v>
+        <v>29.30999946594238</v>
       </c>
       <c r="B50">
-        <v>32.02000045776367</v>
+        <v>30.40999984741211</v>
       </c>
       <c r="C50">
-        <v>29.80999946594238</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="D50">
-        <v>30.03000068664551</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="E50">
-        <v>30.03000068664551</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="F50">
-        <v>29621100</v>
+        <v>18802200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>30.47999954223633</v>
+        <v>29.55999946594238</v>
       </c>
       <c r="B51">
-        <v>32.02000045776367</v>
+        <v>30.32999992370605</v>
       </c>
       <c r="C51">
-        <v>30.31999969482422</v>
+        <v>28.71999931335449</v>
       </c>
       <c r="D51">
-        <v>30.57999992370605</v>
+        <v>29.17000007629395</v>
       </c>
       <c r="E51">
-        <v>30.57999992370605</v>
+        <v>29.17000007629395</v>
       </c>
       <c r="F51">
-        <v>26662200</v>
+        <v>21267200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>30.75</v>
+        <v>29.18000030517578</v>
       </c>
       <c r="B52">
-        <v>32.97999954223633</v>
+        <v>30.04999923706055</v>
       </c>
       <c r="C52">
-        <v>29.96999931335449</v>
+        <v>28.63999938964844</v>
       </c>
       <c r="D52">
-        <v>32.84999847412109</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="E52">
-        <v>32.84999847412109</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="F52">
-        <v>32097800</v>
+        <v>21975800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>33.77000045776367</v>
+        <v>30.8700008392334</v>
       </c>
       <c r="B53">
-        <v>34.38000106811523</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="C53">
-        <v>32.34999847412109</v>
+        <v>30.45000076293945</v>
       </c>
       <c r="D53">
-        <v>33.4900016784668</v>
+        <v>34.02000045776367</v>
       </c>
       <c r="E53">
-        <v>33.4900016784668</v>
+        <v>34.02000045776367</v>
       </c>
       <c r="F53">
-        <v>31396000</v>
+        <v>68454300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>33.38999938964844</v>
+        <v>33.34999847412109</v>
       </c>
       <c r="B54">
-        <v>33.88000106811523</v>
+        <v>34.2400016784668</v>
       </c>
       <c r="C54">
-        <v>32.31999969482422</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="D54">
-        <v>32.43000030517578</v>
+        <v>33.81999969482422</v>
       </c>
       <c r="E54">
-        <v>32.43000030517578</v>
+        <v>33.81999969482422</v>
       </c>
       <c r="F54">
-        <v>17633400</v>
+        <v>48244300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>31.19000053405762</v>
+        <v>34.02999877929688</v>
       </c>
       <c r="B55">
-        <v>32.38999938964844</v>
+        <v>34.13999938964844</v>
       </c>
       <c r="C55">
-        <v>31.02000045776367</v>
+        <v>32.56000137329102</v>
       </c>
       <c r="D55">
-        <v>31.48999977111816</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="E55">
-        <v>31.48999977111816</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="F55">
-        <v>19942500</v>
+        <v>33547600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>31.32999992370605</v>
+        <v>32.91999816894531</v>
       </c>
       <c r="B56">
-        <v>32.29999923706055</v>
+        <v>33.52999877929688</v>
       </c>
       <c r="C56">
-        <v>31.27000045776367</v>
+        <v>31.5</v>
       </c>
       <c r="D56">
         <v>31.85000038146973</v>
@@ -1512,1467 +1512,1467 @@
         <v>31.85000038146973</v>
       </c>
       <c r="F56">
-        <v>21806500</v>
+        <v>73059000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>32</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="B57">
-        <v>32.34000015258789</v>
+        <v>34.18000030517578</v>
       </c>
       <c r="C57">
-        <v>30.42000007629395</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="D57">
-        <v>30.56999969482422</v>
+        <v>34.13999938964844</v>
       </c>
       <c r="E57">
-        <v>30.56999969482422</v>
+        <v>34.13999938964844</v>
       </c>
       <c r="F57">
-        <v>18221500</v>
+        <v>31831200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>30.20000076293945</v>
+        <v>34.59000015258789</v>
       </c>
       <c r="B58">
-        <v>30.70999908447266</v>
+        <v>36.04000091552734</v>
       </c>
       <c r="C58">
-        <v>28.75</v>
+        <v>33.77999877929688</v>
       </c>
       <c r="D58">
-        <v>29.20000076293945</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="E58">
-        <v>29.20000076293945</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="F58">
-        <v>23496600</v>
+        <v>38055500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>28.5</v>
+        <v>35</v>
       </c>
       <c r="B59">
-        <v>29.72999954223633</v>
+        <v>35.40999984741211</v>
       </c>
       <c r="C59">
-        <v>28.39999961853027</v>
+        <v>33.81000137329102</v>
       </c>
       <c r="D59">
-        <v>29.64999961853027</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="E59">
-        <v>29.64999961853027</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="F59">
-        <v>23531600</v>
+        <v>27604700</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>29.30999946594238</v>
+        <v>34.38000106811523</v>
       </c>
       <c r="B60">
-        <v>30.40999984741211</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="C60">
-        <v>29.04999923706055</v>
+        <v>32.77999877929688</v>
       </c>
       <c r="D60">
-        <v>29.85000038146973</v>
+        <v>33.31000137329102</v>
       </c>
       <c r="E60">
-        <v>29.85000038146973</v>
+        <v>33.31000137329102</v>
       </c>
       <c r="F60">
-        <v>18802200</v>
+        <v>18526500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>29.55999946594238</v>
+        <v>33.13000106811523</v>
       </c>
       <c r="B61">
-        <v>30.32999992370605</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="C61">
-        <v>28.71999931335449</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="D61">
-        <v>29.17000007629395</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="E61">
-        <v>29.17000007629395</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="F61">
-        <v>21267200</v>
+        <v>13236400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>29.18000030517578</v>
+        <v>32.66999816894531</v>
       </c>
       <c r="B62">
-        <v>30.04999923706055</v>
+        <v>33.61000061035156</v>
       </c>
       <c r="C62">
-        <v>28.63999938964844</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="D62">
-        <v>29.85000038146973</v>
+        <v>32.86000061035156</v>
       </c>
       <c r="E62">
-        <v>29.85000038146973</v>
+        <v>32.86000061035156</v>
       </c>
       <c r="F62">
-        <v>21975800</v>
+        <v>18586000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>30.8700008392334</v>
+        <v>32.95999908447266</v>
       </c>
       <c r="B63">
-        <v>34.13000106811523</v>
+        <v>33.27999877929688</v>
       </c>
       <c r="C63">
-        <v>30.45000076293945</v>
+        <v>30.04000091552734</v>
       </c>
       <c r="D63">
-        <v>34.02000045776367</v>
+        <v>30.17000007629395</v>
       </c>
       <c r="E63">
-        <v>34.02000045776367</v>
+        <v>30.17000007629395</v>
       </c>
       <c r="F63">
-        <v>68454300</v>
+        <v>24069900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>33.34999847412109</v>
+        <v>28.84000015258789</v>
       </c>
       <c r="B64">
-        <v>34.2400016784668</v>
+        <v>30.34000015258789</v>
       </c>
       <c r="C64">
-        <v>32.02000045776367</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="D64">
-        <v>33.81999969482422</v>
+        <v>29.82999992370605</v>
       </c>
       <c r="E64">
-        <v>33.81999969482422</v>
+        <v>29.82999992370605</v>
       </c>
       <c r="F64">
-        <v>48244300</v>
+        <v>22584700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>34.02999877929688</v>
+        <v>29.98999977111816</v>
       </c>
       <c r="B65">
-        <v>34.13999938964844</v>
+        <v>30.20000076293945</v>
       </c>
       <c r="C65">
-        <v>32.56000137329102</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="D65">
-        <v>32.90000152587891</v>
+        <v>29.38999938964844</v>
       </c>
       <c r="E65">
-        <v>32.90000152587891</v>
+        <v>29.38999938964844</v>
       </c>
       <c r="F65">
-        <v>33547600</v>
+        <v>17545100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>32.91999816894531</v>
+        <v>29.46999931335449</v>
       </c>
       <c r="B66">
-        <v>33.52999877929688</v>
+        <v>29.73999977111816</v>
       </c>
       <c r="C66">
-        <v>31.5</v>
+        <v>27.88999938964844</v>
       </c>
       <c r="D66">
-        <v>31.85000038146973</v>
+        <v>29.02000045776367</v>
       </c>
       <c r="E66">
-        <v>31.85000038146973</v>
+        <v>29.02000045776367</v>
       </c>
       <c r="F66">
-        <v>73059000</v>
+        <v>19078200</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>32.11000061035156</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="B67">
-        <v>34.18000030517578</v>
+        <v>28.71999931335449</v>
       </c>
       <c r="C67">
-        <v>32.11000061035156</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D67">
-        <v>34.13999938964844</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="E67">
-        <v>34.13999938964844</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="F67">
-        <v>31831200</v>
+        <v>16746200</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>34.59000015258789</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>36.04000091552734</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="C68">
-        <v>33.77999877929688</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D68">
-        <v>34.08000183105469</v>
+        <v>26.54000091552734</v>
       </c>
       <c r="E68">
-        <v>34.08000183105469</v>
+        <v>26.54000091552734</v>
       </c>
       <c r="F68">
-        <v>38055500</v>
+        <v>23195900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>35</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B69">
-        <v>35.40999984741211</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="C69">
-        <v>33.81000137329102</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="D69">
-        <v>34.18999862670898</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="E69">
-        <v>34.18999862670898</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="F69">
-        <v>27604700</v>
+        <v>22064100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>34.38000106811523</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B70">
-        <v>34.45000076293945</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="C70">
-        <v>32.77999877929688</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D70">
-        <v>33.31000137329102</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="E70">
-        <v>33.31000137329102</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="F70">
-        <v>18526500</v>
+        <v>16723600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>33.13000106811523</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B71">
-        <v>33.65999984741211</v>
+        <v>26.42000007629395</v>
       </c>
       <c r="C71">
-        <v>32.27999877929688</v>
+        <v>24.75</v>
       </c>
       <c r="D71">
-        <v>32.47999954223633</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>32.47999954223633</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>13236400</v>
+        <v>21409300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>32.66999816894531</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="B72">
-        <v>33.61000061035156</v>
+        <v>27.05999946594238</v>
       </c>
       <c r="C72">
-        <v>32.02000045776367</v>
+        <v>25.30999946594238</v>
       </c>
       <c r="D72">
-        <v>32.86000061035156</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="E72">
-        <v>32.86000061035156</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="F72">
-        <v>18586000</v>
+        <v>15859600</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>32.95999908447266</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B73">
-        <v>33.27999877929688</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="C73">
-        <v>30.04000091552734</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="D73">
-        <v>30.17000007629395</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="E73">
-        <v>30.17000007629395</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="F73">
-        <v>24069900</v>
+        <v>16103400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>28.84000015258789</v>
+        <v>28.34000015258789</v>
       </c>
       <c r="B74">
-        <v>30.34000015258789</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="C74">
-        <v>28.39999961853027</v>
+        <v>26.98999977111816</v>
       </c>
       <c r="D74">
-        <v>29.82999992370605</v>
+        <v>27.32999992370605</v>
       </c>
       <c r="E74">
-        <v>29.82999992370605</v>
+        <v>27.32999992370605</v>
       </c>
       <c r="F74">
-        <v>22584700</v>
+        <v>13085000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>29.98999977111816</v>
+        <v>27.71999931335449</v>
       </c>
       <c r="B75">
-        <v>30.20000076293945</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="C75">
-        <v>28.77000045776367</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="D75">
-        <v>29.38999938964844</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="E75">
-        <v>29.38999938964844</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="F75">
-        <v>17545100</v>
+        <v>13600600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>29.46999931335449</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="B76">
-        <v>29.73999977111816</v>
+        <v>27.57999992370605</v>
       </c>
       <c r="C76">
-        <v>27.88999938964844</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="D76">
-        <v>29.02000045776367</v>
+        <v>27.06999969482422</v>
       </c>
       <c r="E76">
-        <v>29.02000045776367</v>
+        <v>27.06999969482422</v>
       </c>
       <c r="F76">
-        <v>19078200</v>
+        <v>14360500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>28.17000007629395</v>
+        <v>26.95000076293945</v>
       </c>
       <c r="B77">
-        <v>28.71999931335449</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C77">
-        <v>27.67000007629395</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="D77">
-        <v>27.81999969482422</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E77">
-        <v>27.81999969482422</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F77">
-        <v>16746200</v>
+        <v>15319800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>28</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="B78">
-        <v>28.26000022888184</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="C78">
-        <v>26.27000045776367</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="D78">
-        <v>26.54000091552734</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="E78">
-        <v>26.54000091552734</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="F78">
-        <v>23195900</v>
+        <v>15813900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>26.48999977111816</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="B79">
-        <v>27.59000015258789</v>
+        <v>28.07999992370605</v>
       </c>
       <c r="C79">
-        <v>25.8799991607666</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="D79">
-        <v>26.78000068664551</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="E79">
-        <v>26.78000068664551</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="F79">
-        <v>22064100</v>
+        <v>10955100</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>27.02000045776367</v>
+        <v>27</v>
       </c>
       <c r="B80">
-        <v>27.02000045776367</v>
+        <v>27.96999931335449</v>
       </c>
       <c r="C80">
-        <v>25.89999961853027</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="D80">
-        <v>26.01000022888184</v>
+        <v>27.28000068664551</v>
       </c>
       <c r="E80">
-        <v>26.01000022888184</v>
+        <v>27.28000068664551</v>
       </c>
       <c r="F80">
-        <v>16723600</v>
+        <v>10442300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>25.04999923706055</v>
+        <v>27.5</v>
       </c>
       <c r="B81">
-        <v>26.42000007629395</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="C81">
-        <v>24.75</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="D81">
-        <v>26</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E81">
-        <v>26</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F81">
-        <v>21409300</v>
+        <v>11015000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>26.10000038146973</v>
+        <v>26.81999969482422</v>
       </c>
       <c r="B82">
-        <v>27.05999946594238</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C82">
-        <v>25.30999946594238</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="D82">
-        <v>26.86000061035156</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="E82">
-        <v>26.86000061035156</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="F82">
-        <v>15859600</v>
+        <v>10573800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>26.88999938964844</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="B83">
-        <v>28.14999961853027</v>
+        <v>27.20999908447266</v>
       </c>
       <c r="C83">
-        <v>26.70000076293945</v>
+        <v>25.69000053405762</v>
       </c>
       <c r="D83">
-        <v>28.04999923706055</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="E83">
-        <v>28.04999923706055</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="F83">
-        <v>16103400</v>
+        <v>13394900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>28.34000015258789</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="B84">
-        <v>28.39999961853027</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="C84">
-        <v>26.98999977111816</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="D84">
-        <v>27.32999992370605</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>27.32999992370605</v>
+        <v>26</v>
       </c>
       <c r="F84">
-        <v>13085000</v>
+        <v>16191800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>27.71999931335449</v>
+        <v>28.40999984741211</v>
       </c>
       <c r="B85">
-        <v>27.79000091552734</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="C85">
-        <v>26.39999961853027</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="D85">
-        <v>26.80999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="E85">
-        <v>26.80999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="F85">
-        <v>13600600</v>
+        <v>33493300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>26.63999938964844</v>
+        <v>25.95000076293945</v>
       </c>
       <c r="B86">
-        <v>27.57999992370605</v>
+        <v>28.90999984741211</v>
       </c>
       <c r="C86">
-        <v>26.38999938964844</v>
+        <v>25.86000061035156</v>
       </c>
       <c r="D86">
-        <v>27.06999969482422</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="E86">
-        <v>27.06999969482422</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="F86">
-        <v>14360500</v>
+        <v>38697900</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>26.95000076293945</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="B87">
-        <v>27.14999961853027</v>
+        <v>30.25</v>
       </c>
       <c r="C87">
-        <v>25.38999938964844</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="D87">
-        <v>26.54999923706055</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="E87">
-        <v>26.54999923706055</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="F87">
-        <v>15319800</v>
+        <v>31882900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>26.6200008392334</v>
+        <v>29.56999969482422</v>
       </c>
       <c r="B88">
-        <v>28.14999961853027</v>
+        <v>29.77000045776367</v>
       </c>
       <c r="C88">
-        <v>26.55999946594238</v>
+        <v>26.95999908447266</v>
       </c>
       <c r="D88">
-        <v>27.82999992370605</v>
+        <v>27.39999961853027</v>
       </c>
       <c r="E88">
-        <v>27.82999992370605</v>
+        <v>27.39999961853027</v>
       </c>
       <c r="F88">
-        <v>15813900</v>
+        <v>25261400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>27.82999992370605</v>
+        <v>27.04999923706055</v>
       </c>
       <c r="B89">
-        <v>28.07999992370605</v>
+        <v>27.42000007629395</v>
       </c>
       <c r="C89">
-        <v>27.13999938964844</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="D89">
-        <v>27.20000076293945</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="E89">
-        <v>27.20000076293945</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="F89">
-        <v>10955100</v>
+        <v>17167500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>27</v>
+        <v>26.32999992370605</v>
       </c>
       <c r="B90">
-        <v>27.96999931335449</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="C90">
-        <v>26.70999908447266</v>
+        <v>24.86000061035156</v>
       </c>
       <c r="D90">
-        <v>27.28000068664551</v>
+        <v>24.98999977111816</v>
       </c>
       <c r="E90">
-        <v>27.28000068664551</v>
+        <v>24.98999977111816</v>
       </c>
       <c r="F90">
-        <v>10442300</v>
+        <v>21398100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>27.5</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B91">
-        <v>27.56999969482422</v>
+        <v>25.80999946594238</v>
       </c>
       <c r="C91">
-        <v>26.56999969482422</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="D91">
-        <v>26.6200008392334</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="E91">
-        <v>26.6200008392334</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F91">
-        <v>11015000</v>
+        <v>28190100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>26.81999969482422</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="B92">
-        <v>26.8700008392334</v>
+        <v>25.95999908447266</v>
       </c>
       <c r="C92">
-        <v>25.8799991607666</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="D92">
-        <v>26.48999977111816</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="E92">
-        <v>26.48999977111816</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="F92">
-        <v>10573800</v>
+        <v>25551100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>26.28000068664551</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B93">
-        <v>27.20999908447266</v>
+        <v>26.04999923706055</v>
       </c>
       <c r="C93">
-        <v>25.69000053405762</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D93">
-        <v>25.88999938964844</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E93">
-        <v>25.88999938964844</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F93">
-        <v>13394900</v>
+        <v>19787800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>25.65999984741211</v>
+        <v>25.04000091552734</v>
       </c>
       <c r="B94">
-        <v>26.63999938964844</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="C94">
-        <v>25.01000022888184</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="D94">
-        <v>26</v>
+        <v>23.76000022888184</v>
       </c>
       <c r="E94">
-        <v>26</v>
+        <v>23.76000022888184</v>
       </c>
       <c r="F94">
-        <v>16191800</v>
+        <v>18274700</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>28.40999984741211</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="B95">
-        <v>28.70000076293945</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C95">
-        <v>25.79000091552734</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="D95">
-        <v>25.89999961853027</v>
+        <v>24.22999954223633</v>
       </c>
       <c r="E95">
-        <v>25.89999961853027</v>
+        <v>24.22999954223633</v>
       </c>
       <c r="F95">
-        <v>33493300</v>
+        <v>13628500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>25.95000076293945</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="B96">
-        <v>28.90999984741211</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="C96">
-        <v>25.86000061035156</v>
+        <v>24.25</v>
       </c>
       <c r="D96">
-        <v>28.18000030517578</v>
+        <v>25.31999969482422</v>
       </c>
       <c r="E96">
-        <v>28.18000030517578</v>
+        <v>25.31999969482422</v>
       </c>
       <c r="F96">
-        <v>38697900</v>
+        <v>14008500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>29.59000015258789</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="B97">
-        <v>30.25</v>
+        <v>26.06999969482422</v>
       </c>
       <c r="C97">
-        <v>28.60000038146973</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="D97">
-        <v>29.10000038146973</v>
+        <v>25.85000038146973</v>
       </c>
       <c r="E97">
-        <v>29.10000038146973</v>
+        <v>25.85000038146973</v>
       </c>
       <c r="F97">
-        <v>31882900</v>
+        <v>14579200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>29.56999969482422</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="B98">
-        <v>29.77000045776367</v>
+        <v>26.75</v>
       </c>
       <c r="C98">
-        <v>26.95999908447266</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="D98">
-        <v>27.39999961853027</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="E98">
-        <v>27.39999961853027</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="F98">
-        <v>25261400</v>
+        <v>15087200</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>27.04999923706055</v>
+        <v>26.06999969482422</v>
       </c>
       <c r="B99">
-        <v>27.42000007629395</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C99">
-        <v>25.8799991607666</v>
+        <v>25.72999954223633</v>
       </c>
       <c r="D99">
-        <v>26.40999984741211</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="E99">
-        <v>26.40999984741211</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="F99">
-        <v>17167500</v>
+        <v>12605000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>26.32999992370605</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="B100">
-        <v>26.45999908447266</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C100">
-        <v>24.86000061035156</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="D100">
-        <v>24.98999977111816</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="E100">
-        <v>24.98999977111816</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="F100">
-        <v>21398100</v>
+        <v>11494600</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>24.79000091552734</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="B101">
-        <v>25.80999946594238</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C101">
-        <v>24.39999961853027</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D101">
-        <v>25.10000038146973</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E101">
-        <v>25.10000038146973</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F101">
-        <v>28190100</v>
+        <v>17647500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>24.60000038146973</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B102">
-        <v>25.95999908447266</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="C102">
-        <v>24.45000076293945</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="D102">
-        <v>25.8700008392334</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="E102">
-        <v>25.8700008392334</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="F102">
-        <v>25551100</v>
+        <v>11419500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>25.98999977111816</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="B103">
-        <v>26.04999923706055</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="C103">
-        <v>24.90999984741211</v>
+        <v>26.25</v>
       </c>
       <c r="D103">
-        <v>25.05999946594238</v>
+        <v>26.93000030517578</v>
       </c>
       <c r="E103">
-        <v>25.05999946594238</v>
+        <v>26.93000030517578</v>
       </c>
       <c r="F103">
-        <v>19787800</v>
+        <v>16291100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>25.04000091552734</v>
+        <v>27.25</v>
       </c>
       <c r="B104">
-        <v>25.38999938964844</v>
+        <v>27.6200008392334</v>
       </c>
       <c r="C104">
-        <v>23.70000076293945</v>
+        <v>26.76000022888184</v>
       </c>
       <c r="D104">
-        <v>23.76000022888184</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="E104">
-        <v>23.76000022888184</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="F104">
-        <v>18274700</v>
+        <v>12857900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>23.69000053405762</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="B105">
-        <v>24.52000045776367</v>
+        <v>27.25</v>
       </c>
       <c r="C105">
-        <v>23.53000068664551</v>
+        <v>26.25</v>
       </c>
       <c r="D105">
-        <v>24.22999954223633</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="E105">
-        <v>24.22999954223633</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="F105">
-        <v>13628500</v>
+        <v>11288500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>24.38999938964844</v>
+        <v>26.5</v>
       </c>
       <c r="B106">
-        <v>25.3700008392334</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C106">
-        <v>24.25</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="D106">
-        <v>25.31999969482422</v>
+        <v>26.79999923706055</v>
       </c>
       <c r="E106">
-        <v>25.31999969482422</v>
+        <v>26.79999923706055</v>
       </c>
       <c r="F106">
-        <v>14008500</v>
+        <v>12463900</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>25.54999923706055</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="B107">
-        <v>26.06999969482422</v>
+        <v>26.85000038146973</v>
       </c>
       <c r="C107">
-        <v>25.23999977111816</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="D107">
-        <v>25.85000038146973</v>
+        <v>25.25</v>
       </c>
       <c r="E107">
-        <v>25.85000038146973</v>
+        <v>25.25</v>
       </c>
       <c r="F107">
-        <v>14579200</v>
+        <v>15164800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>25.8700008392334</v>
+        <v>25.18000030517578</v>
       </c>
       <c r="B108">
-        <v>26.75</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="C108">
-        <v>25.39999961853027</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="D108">
-        <v>26.40999984741211</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="E108">
-        <v>26.40999984741211</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="F108">
-        <v>15087200</v>
+        <v>11264700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>26.06999969482422</v>
+        <v>25.59000015258789</v>
       </c>
       <c r="B109">
-        <v>26.8700008392334</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C109">
-        <v>25.72999954223633</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D109">
-        <v>25.89999961853027</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="E109">
-        <v>25.89999961853027</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="F109">
-        <v>12605000</v>
+        <v>21528800</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>26.01000022888184</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="B110">
-        <v>26.8700008392334</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="C110">
-        <v>25.79000091552734</v>
+        <v>23.15999984741211</v>
       </c>
       <c r="D110">
-        <v>26.60000038146973</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="E110">
-        <v>26.60000038146973</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="F110">
-        <v>11494600</v>
+        <v>19676200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>26.56999969482422</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="B111">
-        <v>26.70000076293945</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="C111">
-        <v>25.45000076293945</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="D111">
-        <v>26.1299991607666</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="E111">
-        <v>26.1299991607666</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="F111">
-        <v>17647500</v>
+        <v>20087100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>26.18000030517578</v>
+        <v>24.46999931335449</v>
       </c>
       <c r="B112">
-        <v>26.88999938964844</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="C112">
-        <v>25.96999931335449</v>
+        <v>24</v>
       </c>
       <c r="D112">
-        <v>26.05999946594238</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="E112">
-        <v>26.05999946594238</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="F112">
-        <v>11419500</v>
+        <v>10783600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>26.51000022888184</v>
+        <v>24.45999908447266</v>
       </c>
       <c r="B113">
-        <v>27.46999931335449</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C113">
-        <v>26.25</v>
+        <v>24.10000038146973</v>
       </c>
       <c r="D113">
-        <v>26.93000030517578</v>
+        <v>24.96999931335449</v>
       </c>
       <c r="E113">
-        <v>26.93000030517578</v>
+        <v>24.96999931335449</v>
       </c>
       <c r="F113">
-        <v>16291100</v>
+        <v>10461800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>27.25</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="B114">
-        <v>27.6200008392334</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="C114">
-        <v>26.76000022888184</v>
+        <v>24.98999977111816</v>
       </c>
       <c r="D114">
-        <v>27.14999961853027</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E114">
-        <v>27.14999961853027</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F114">
-        <v>12857900</v>
+        <v>23850100</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>27.1200008392334</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="B115">
-        <v>27.25</v>
+        <v>26.02000045776367</v>
       </c>
       <c r="C115">
-        <v>26.25</v>
+        <v>25.1299991607666</v>
       </c>
       <c r="D115">
-        <v>26.39999961853027</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="E115">
-        <v>26.39999961853027</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="F115">
-        <v>11288500</v>
+        <v>16766900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>26.5</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="B116">
-        <v>27.14999961853027</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="C116">
-        <v>26.34000015258789</v>
+        <v>25.5</v>
       </c>
       <c r="D116">
-        <v>26.79999923706055</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="E116">
-        <v>26.79999923706055</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="F116">
-        <v>12463900</v>
+        <v>13084000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>26.77000045776367</v>
+        <v>26.04000091552734</v>
       </c>
       <c r="B117">
-        <v>26.85000038146973</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="C117">
-        <v>25.14999961853027</v>
+        <v>25.81999969482422</v>
       </c>
       <c r="D117">
-        <v>25.25</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="E117">
-        <v>25.25</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="F117">
-        <v>15164800</v>
+        <v>15050200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>25.18000030517578</v>
+        <v>28.03000068664551</v>
       </c>
       <c r="B118">
-        <v>25.8799991607666</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="C118">
-        <v>24.78000068664551</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="D118">
-        <v>25.26000022888184</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="E118">
-        <v>25.26000022888184</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="F118">
-        <v>11264700</v>
+        <v>21569200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>25.59000015258789</v>
+        <v>27.5</v>
       </c>
       <c r="B119">
-        <v>26.1200008392334</v>
+        <v>27.57999992370605</v>
       </c>
       <c r="C119">
-        <v>24.07999992370605</v>
+        <v>26.65999984741211</v>
       </c>
       <c r="D119">
-        <v>24.15999984741211</v>
+        <v>26.96999931335449</v>
       </c>
       <c r="E119">
-        <v>24.15999984741211</v>
+        <v>26.96999931335449</v>
       </c>
       <c r="F119">
-        <v>21528800</v>
+        <v>12430100</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>24.20000076293945</v>
+        <v>27.03000068664551</v>
       </c>
       <c r="B120">
-        <v>24.79000091552734</v>
+        <v>28.82999992370605</v>
       </c>
       <c r="C120">
-        <v>23.15999984741211</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="D120">
-        <v>24.20999908447266</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="E120">
-        <v>24.20999908447266</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="F120">
-        <v>19676200</v>
+        <v>20703700</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>24.6299991607666</v>
+        <v>28</v>
       </c>
       <c r="B121">
-        <v>25.65999984741211</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="C121">
-        <v>24.39999961853027</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="D121">
-        <v>24.65999984741211</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="E121">
-        <v>24.65999984741211</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="F121">
-        <v>20087100</v>
+        <v>17465400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>24.46999931335449</v>
+        <v>27.05999946594238</v>
       </c>
       <c r="B122">
-        <v>24.69000053405762</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="C122">
-        <v>24</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="D122">
-        <v>24.6299991607666</v>
+        <v>25.19000053405762</v>
       </c>
       <c r="E122">
-        <v>24.6299991607666</v>
+        <v>25.19000053405762</v>
       </c>
       <c r="F122">
-        <v>10783600</v>
+        <v>21933300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>24.45999908447266</v>
+        <v>25.25</v>
       </c>
       <c r="B123">
-        <v>25.01000022888184</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="C123">
-        <v>24.10000038146973</v>
+        <v>24.86000061035156</v>
       </c>
       <c r="D123">
-        <v>24.96999931335449</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="E123">
-        <v>24.96999931335449</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="F123">
-        <v>10461800</v>
+        <v>14061600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>25.01000022888184</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="B124">
-        <v>26.53000068664551</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="C124">
-        <v>24.98999977111816</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D124">
-        <v>26.46999931335449</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="E124">
-        <v>26.46999931335449</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="F124">
-        <v>23822900</v>
+        <v>9885400</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>25.40999984741211</v>
+        <v>25.36000061035156</v>
       </c>
       <c r="B125">
-        <v>26.02000045776367</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="C125">
-        <v>25.1299991607666</v>
+        <v>24.1200008392334</v>
       </c>
       <c r="D125">
-        <v>25.71999931335449</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="E125">
-        <v>25.71999931335449</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="F125">
-        <v>16766900</v>
+        <v>14693800</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>25.8700008392334</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B126">
-        <v>26.46999931335449</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="C126">
-        <v>25.5</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D126">
-        <v>26.07999992370605</v>
+        <v>24.3700008392334</v>
       </c>
       <c r="E126">
-        <v>26.07999992370605</v>
+        <v>24.3700008392334</v>
       </c>
       <c r="F126">
-        <v>13084000</v>
+        <v>9895800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>26.04000091552734</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B127">
-        <v>27.10000038146973</v>
+        <v>25</v>
       </c>
       <c r="C127">
-        <v>25.81999969482422</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="D127">
-        <v>26.92000007629395</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="E127">
-        <v>26.92000007629395</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="F127">
-        <v>15050200</v>
+        <v>13580800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>28.03000068664551</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="B128">
-        <v>28.39999961853027</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C128">
-        <v>27.10000038146973</v>
+        <v>24.64999961853027</v>
       </c>
       <c r="D128">
-        <v>27.77000045776367</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="E128">
-        <v>27.77000045776367</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="F128">
-        <v>21569200</v>
+        <v>15150400</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>27.5</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="B129">
-        <v>27.57999992370605</v>
+        <v>27.36000061035156</v>
       </c>
       <c r="C129">
-        <v>26.65999984741211</v>
+        <v>26.3700008392334</v>
       </c>
       <c r="D129">
-        <v>26.96999931335449</v>
+        <v>27.19000053405762</v>
       </c>
       <c r="E129">
-        <v>26.96999931335449</v>
+        <v>27.19000053405762</v>
       </c>
       <c r="F129">
-        <v>12422100</v>
+        <v>17174800</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/PLUG/PLUG_HighLow.xlsx
+++ b/Stocks/PLUG/PLUG_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>32.20000076293945</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="B2">
-        <v>33.06000137329102</v>
+        <v>26.89999961853027</v>
       </c>
       <c r="C2">
-        <v>31.68000030517578</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="D2">
-        <v>32.29999923706055</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="E2">
-        <v>32.29999923706055</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="F2">
-        <v>19934200</v>
+        <v>36094600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>31.36000061035156</v>
+        <v>25.32999992370605</v>
       </c>
       <c r="B3">
-        <v>31.45999908447266</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="C3">
-        <v>28.77000045776367</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="D3">
-        <v>29.68000030517578</v>
+        <v>25.25</v>
       </c>
       <c r="E3">
-        <v>29.68000030517578</v>
+        <v>25.25</v>
       </c>
       <c r="F3">
-        <v>43878900</v>
+        <v>40063500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>28.77000045776367</v>
+        <v>24.55999946594238</v>
       </c>
       <c r="B4">
-        <v>29.5</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="C4">
-        <v>28.01000022888184</v>
+        <v>23.90999984741211</v>
       </c>
       <c r="D4">
-        <v>29.29000091552734</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="E4">
-        <v>29.29000091552734</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="F4">
-        <v>40036800</v>
+        <v>39428400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>30.18000030517578</v>
+        <v>28.15999984741211</v>
       </c>
       <c r="B5">
-        <v>30.69000053405762</v>
+        <v>28.48999977111816</v>
       </c>
       <c r="C5">
-        <v>28.27000045776367</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="D5">
-        <v>28.38999938964844</v>
+        <v>26.5</v>
       </c>
       <c r="E5">
-        <v>28.38999938964844</v>
+        <v>26.5</v>
       </c>
       <c r="F5">
-        <v>30642300</v>
+        <v>48564100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>28.75</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B6">
-        <v>28.77000045776367</v>
+        <v>28.13999938964844</v>
       </c>
       <c r="C6">
-        <v>24.61000061035156</v>
+        <v>26.31999969482422</v>
       </c>
       <c r="D6">
-        <v>26.09000015258789</v>
+        <v>27.97999954223633</v>
       </c>
       <c r="E6">
-        <v>26.09000015258789</v>
+        <v>27.97999954223633</v>
       </c>
       <c r="F6">
-        <v>69174300</v>
+        <v>28087200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>25.79999923706055</v>
+        <v>28.73999977111816</v>
       </c>
       <c r="B7">
-        <v>27.57999992370605</v>
+        <v>29.55999946594238</v>
       </c>
       <c r="C7">
-        <v>25.45000076293945</v>
+        <v>27.27000045776367</v>
       </c>
       <c r="D7">
-        <v>27.23999977111816</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="E7">
-        <v>27.23999977111816</v>
+        <v>29.29000091552734</v>
       </c>
       <c r="F7">
-        <v>50767700</v>
+        <v>45522200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>26.70000076293945</v>
+        <v>29.43000030517578</v>
       </c>
       <c r="B8">
-        <v>26.89999961853027</v>
+        <v>29.55999946594238</v>
       </c>
       <c r="C8">
-        <v>25.01000022888184</v>
+        <v>28.42000007629395</v>
       </c>
       <c r="D8">
-        <v>25.23999977111816</v>
+        <v>28.54999923706055</v>
       </c>
       <c r="E8">
-        <v>25.23999977111816</v>
+        <v>28.54999923706055</v>
       </c>
       <c r="F8">
-        <v>36094600</v>
+        <v>27416600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>25.32999992370605</v>
+        <v>27.92000007629395</v>
       </c>
       <c r="B9">
-        <v>26.36000061035156</v>
+        <v>29.07999992370605</v>
       </c>
       <c r="C9">
-        <v>24.6299991607666</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="D9">
-        <v>25.25</v>
+        <v>28.86000061035156</v>
       </c>
       <c r="E9">
-        <v>25.25</v>
+        <v>28.86000061035156</v>
       </c>
       <c r="F9">
-        <v>40063500</v>
+        <v>24936900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>24.55999946594238</v>
+        <v>30.04999923706055</v>
       </c>
       <c r="B10">
-        <v>27.13999938964844</v>
+        <v>30.34000015258789</v>
       </c>
       <c r="C10">
-        <v>23.90999984741211</v>
+        <v>27.97999954223633</v>
       </c>
       <c r="D10">
-        <v>27.13999938964844</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="E10">
-        <v>27.13999938964844</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="F10">
-        <v>39428400</v>
+        <v>35927300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>28.15999984741211</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="B11">
-        <v>28.48999977111816</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="C11">
-        <v>26.23999977111816</v>
+        <v>27.60000038146973</v>
       </c>
       <c r="D11">
-        <v>26.5</v>
+        <v>28.51000022888184</v>
       </c>
       <c r="E11">
-        <v>26.5</v>
+        <v>28.51000022888184</v>
       </c>
       <c r="F11">
-        <v>48564100</v>
+        <v>27026400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>26.88999938964844</v>
+        <v>28.54000091552734</v>
       </c>
       <c r="B12">
-        <v>28.13999938964844</v>
+        <v>28.81999969482422</v>
       </c>
       <c r="C12">
-        <v>26.31999969482422</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="D12">
-        <v>27.97999954223633</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="E12">
-        <v>27.97999954223633</v>
+        <v>26.6299991607666</v>
       </c>
       <c r="F12">
-        <v>28087200</v>
+        <v>30448600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>28.73999977111816</v>
+        <v>24.86000061035156</v>
       </c>
       <c r="B13">
-        <v>29.55999946594238</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="C13">
-        <v>27.27000045776367</v>
+        <v>24.03000068664551</v>
       </c>
       <c r="D13">
-        <v>29.29000091552734</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="E13">
-        <v>29.29000091552734</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="F13">
-        <v>45522200</v>
+        <v>44542700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>29.43000030517578</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="B14">
-        <v>29.55999946594238</v>
+        <v>25.6299991607666</v>
       </c>
       <c r="C14">
-        <v>28.42000007629395</v>
+        <v>24.11000061035156</v>
       </c>
       <c r="D14">
-        <v>28.54999923706055</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="E14">
-        <v>28.54999923706055</v>
+        <v>24.29000091552734</v>
       </c>
       <c r="F14">
-        <v>27416600</v>
+        <v>29291900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>27.92000007629395</v>
+        <v>23.17000007629395</v>
       </c>
       <c r="B15">
-        <v>29.07999992370605</v>
+        <v>23.61000061035156</v>
       </c>
       <c r="C15">
-        <v>27.54999923706055</v>
+        <v>21.57999992370605</v>
       </c>
       <c r="D15">
-        <v>28.86000061035156</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="E15">
-        <v>28.86000061035156</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="F15">
-        <v>24936900</v>
+        <v>45365300</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>30.04999923706055</v>
+        <v>22.97999954223633</v>
       </c>
       <c r="B16">
-        <v>30.34000015258789</v>
+        <v>23.93000030517578</v>
       </c>
       <c r="C16">
-        <v>27.97999954223633</v>
+        <v>22.59000015258789</v>
       </c>
       <c r="D16">
-        <v>28.27000045776367</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="E16">
-        <v>28.27000045776367</v>
+        <v>23.04999923706055</v>
       </c>
       <c r="F16">
-        <v>35927300</v>
+        <v>21640900</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>27.77000045776367</v>
+        <v>22.65999984741211</v>
       </c>
       <c r="B17">
-        <v>29.20000076293945</v>
+        <v>22.65999984741211</v>
       </c>
       <c r="C17">
-        <v>27.60000038146973</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="D17">
-        <v>28.51000022888184</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="E17">
-        <v>28.51000022888184</v>
+        <v>20.06999969482422</v>
       </c>
       <c r="F17">
-        <v>27026400</v>
+        <v>39035300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>28.54000091552734</v>
+        <v>18.60000038146973</v>
       </c>
       <c r="B18">
-        <v>28.81999969482422</v>
+        <v>23.72999954223633</v>
       </c>
       <c r="C18">
-        <v>26.21999931335449</v>
+        <v>18.46999931335449</v>
       </c>
       <c r="D18">
-        <v>26.6299991607666</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="E18">
-        <v>26.6299991607666</v>
+        <v>23.60000038146973</v>
       </c>
       <c r="F18">
-        <v>30448600</v>
+        <v>83706100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>24.86000061035156</v>
+        <v>22.78000068664551</v>
       </c>
       <c r="B19">
-        <v>25.40999984741211</v>
+        <v>23.59000015258789</v>
       </c>
       <c r="C19">
-        <v>24.03000068664551</v>
+        <v>22.1200008392334</v>
       </c>
       <c r="D19">
-        <v>24.60000038146973</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="E19">
-        <v>24.60000038146973</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="F19">
-        <v>44542700</v>
+        <v>47491900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>25.05999946594238</v>
+        <v>22.73999977111816</v>
       </c>
       <c r="B20">
-        <v>25.6299991607666</v>
+        <v>23.61000061035156</v>
       </c>
       <c r="C20">
-        <v>24.11000061035156</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="D20">
-        <v>24.29000091552734</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="E20">
-        <v>24.29000091552734</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="F20">
-        <v>29291900</v>
+        <v>38358900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>23.17000007629395</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B21">
-        <v>23.61000061035156</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="C21">
-        <v>21.57999992370605</v>
+        <v>23.65999984741211</v>
       </c>
       <c r="D21">
-        <v>22.55999946594238</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="E21">
-        <v>22.55999946594238</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="F21">
-        <v>45365300</v>
+        <v>82513500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>22.97999954223633</v>
+        <v>24.25</v>
       </c>
       <c r="B22">
+        <v>25.46999931335449</v>
+      </c>
+      <c r="C22">
         <v>23.93000030517578</v>
       </c>
-      <c r="C22">
-        <v>22.59000015258789</v>
-      </c>
       <c r="D22">
-        <v>23.04999923706055</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="E22">
-        <v>23.04999923706055</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="F22">
-        <v>21640900</v>
+        <v>40244200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>22.65999984741211</v>
+        <v>25.30999946594238</v>
       </c>
       <c r="B23">
-        <v>22.65999984741211</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="C23">
-        <v>20.04999923706055</v>
+        <v>24.76000022888184</v>
       </c>
       <c r="D23">
-        <v>20.06999969482422</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="E23">
-        <v>20.06999969482422</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="F23">
-        <v>39035300</v>
+        <v>59394200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18.60000038146973</v>
+        <v>26.30999946594238</v>
       </c>
       <c r="B24">
-        <v>23.72999954223633</v>
+        <v>27.65999984741211</v>
       </c>
       <c r="C24">
-        <v>18.46999931335449</v>
+        <v>25.75</v>
       </c>
       <c r="D24">
-        <v>23.60000038146973</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E24">
-        <v>23.60000038146973</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F24">
-        <v>83706100</v>
+        <v>49945900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>22.78000068664551</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="B25">
-        <v>23.59000015258789</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="C25">
-        <v>22.1200008392334</v>
+        <v>26.59000015258789</v>
       </c>
       <c r="D25">
-        <v>22.23999977111816</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="E25">
-        <v>22.23999977111816</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="F25">
-        <v>47491900</v>
+        <v>39090800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>22.73999977111816</v>
+        <v>27.73999977111816</v>
       </c>
       <c r="B26">
-        <v>23.61000061035156</v>
+        <v>28.31999969482422</v>
       </c>
       <c r="C26">
-        <v>21.29999923706055</v>
+        <v>26.81999969482422</v>
       </c>
       <c r="D26">
-        <v>21.95999908447266</v>
+        <v>27.88999938964844</v>
       </c>
       <c r="E26">
-        <v>21.95999908447266</v>
+        <v>27.88999938964844</v>
       </c>
       <c r="F26">
-        <v>38358900</v>
+        <v>37012600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>25.04999923706055</v>
+        <v>27.95000076293945</v>
       </c>
       <c r="B27">
-        <v>25.52000045776367</v>
+        <v>27.96999931335449</v>
       </c>
       <c r="C27">
-        <v>23.65999984741211</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="D27">
-        <v>24.57999992370605</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="E27">
-        <v>24.57999992370605</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="F27">
-        <v>82513500</v>
+        <v>26736700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>24.25</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="B28">
-        <v>25.46999931335449</v>
+        <v>28.21999931335449</v>
       </c>
       <c r="C28">
-        <v>23.93000030517578</v>
+        <v>26.65999984741211</v>
       </c>
       <c r="D28">
-        <v>24.94000053405762</v>
+        <v>27.80999946594238</v>
       </c>
       <c r="E28">
-        <v>24.94000053405762</v>
+        <v>27.80999946594238</v>
       </c>
       <c r="F28">
-        <v>40244200</v>
+        <v>31182900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>25.30999946594238</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="B29">
-        <v>27.79000091552734</v>
+        <v>29.88999938964844</v>
       </c>
       <c r="C29">
-        <v>24.76000022888184</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="D29">
-        <v>27.02000045776367</v>
+        <v>29.69000053405762</v>
       </c>
       <c r="E29">
-        <v>27.02000045776367</v>
+        <v>29.69000053405762</v>
       </c>
       <c r="F29">
-        <v>59394200</v>
+        <v>27740500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>26.30999946594238</v>
+        <v>30.02000045776367</v>
       </c>
       <c r="B30">
-        <v>27.65999984741211</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="C30">
-        <v>25.75</v>
+        <v>28.8799991607666</v>
       </c>
       <c r="D30">
-        <v>27.46999931335449</v>
+        <v>29.93000030517578</v>
       </c>
       <c r="E30">
-        <v>27.46999931335449</v>
+        <v>29.93000030517578</v>
       </c>
       <c r="F30">
-        <v>49945900</v>
+        <v>32422400</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>28.20000076293945</v>
+        <v>30.79000091552734</v>
       </c>
       <c r="B31">
-        <v>28.6299991607666</v>
+        <v>31.81999969482422</v>
       </c>
       <c r="C31">
-        <v>26.59000015258789</v>
+        <v>30.20999908447266</v>
       </c>
       <c r="D31">
-        <v>27.46999931335449</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="E31">
-        <v>27.46999931335449</v>
+        <v>30.70000076293945</v>
       </c>
       <c r="F31">
-        <v>39090800</v>
+        <v>40289300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>27.73999977111816</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="B32">
-        <v>28.31999969482422</v>
+        <v>31.5</v>
       </c>
       <c r="C32">
-        <v>26.81999969482422</v>
+        <v>29.81999969482422</v>
       </c>
       <c r="D32">
-        <v>27.88999938964844</v>
+        <v>30.88999938964844</v>
       </c>
       <c r="E32">
-        <v>27.88999938964844</v>
+        <v>30.88999938964844</v>
       </c>
       <c r="F32">
-        <v>37012600</v>
+        <v>23920100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>27.95000076293945</v>
+        <v>30.80999946594238</v>
       </c>
       <c r="B33">
-        <v>27.96999931335449</v>
+        <v>30.88999938964844</v>
       </c>
       <c r="C33">
-        <v>26.70999908447266</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="D33">
-        <v>27.20000076293945</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="E33">
-        <v>27.20000076293945</v>
+        <v>30.69000053405762</v>
       </c>
       <c r="F33">
-        <v>26736700</v>
+        <v>25008300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>26.8700008392334</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="B34">
-        <v>28.21999931335449</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="C34">
-        <v>26.65999984741211</v>
+        <v>29.80999946594238</v>
       </c>
       <c r="D34">
-        <v>27.80999946594238</v>
+        <v>30.03000068664551</v>
       </c>
       <c r="E34">
-        <v>27.80999946594238</v>
+        <v>30.03000068664551</v>
       </c>
       <c r="F34">
-        <v>31182900</v>
+        <v>29621100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>28.1299991607666</v>
+        <v>30.47999954223633</v>
       </c>
       <c r="B35">
-        <v>29.88999938964844</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="C35">
-        <v>27.93000030517578</v>
+        <v>30.31999969482422</v>
       </c>
       <c r="D35">
-        <v>29.69000053405762</v>
+        <v>30.57999992370605</v>
       </c>
       <c r="E35">
-        <v>29.69000053405762</v>
+        <v>30.57999992370605</v>
       </c>
       <c r="F35">
-        <v>27740500</v>
+        <v>26662200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>30.02000045776367</v>
+        <v>30.75</v>
       </c>
       <c r="B36">
-        <v>30.09000015258789</v>
+        <v>32.97999954223633</v>
       </c>
       <c r="C36">
-        <v>28.8799991607666</v>
+        <v>29.96999931335449</v>
       </c>
       <c r="D36">
-        <v>29.93000030517578</v>
+        <v>32.84999847412109</v>
       </c>
       <c r="E36">
-        <v>29.93000030517578</v>
+        <v>32.84999847412109</v>
       </c>
       <c r="F36">
-        <v>32422400</v>
+        <v>32097800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>30.79000091552734</v>
+        <v>33.77000045776367</v>
       </c>
       <c r="B37">
-        <v>31.81999969482422</v>
+        <v>34.38000106811523</v>
       </c>
       <c r="C37">
-        <v>30.20999908447266</v>
+        <v>32.34999847412109</v>
       </c>
       <c r="D37">
-        <v>30.70000076293945</v>
+        <v>33.4900016784668</v>
       </c>
       <c r="E37">
-        <v>30.70000076293945</v>
+        <v>33.4900016784668</v>
       </c>
       <c r="F37">
-        <v>40289300</v>
+        <v>31396000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>31.10000038146973</v>
+        <v>33.38999938964844</v>
       </c>
       <c r="B38">
-        <v>31.5</v>
+        <v>33.88000106811523</v>
       </c>
       <c r="C38">
-        <v>29.81999969482422</v>
+        <v>32.31999969482422</v>
       </c>
       <c r="D38">
-        <v>30.88999938964844</v>
+        <v>32.43000030517578</v>
       </c>
       <c r="E38">
-        <v>30.88999938964844</v>
+        <v>32.43000030517578</v>
       </c>
       <c r="F38">
-        <v>23920100</v>
+        <v>17633400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>30.80999946594238</v>
+        <v>31.19000053405762</v>
       </c>
       <c r="B39">
-        <v>30.88999938964844</v>
+        <v>32.38999938964844</v>
       </c>
       <c r="C39">
-        <v>29.85000038146973</v>
+        <v>31.02000045776367</v>
       </c>
       <c r="D39">
-        <v>30.69000053405762</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="E39">
-        <v>30.69000053405762</v>
+        <v>31.48999977111816</v>
       </c>
       <c r="F39">
-        <v>25008300</v>
+        <v>19942500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>30.67000007629395</v>
+        <v>31.32999992370605</v>
       </c>
       <c r="B40">
-        <v>32.02000045776367</v>
+        <v>32.29999923706055</v>
       </c>
       <c r="C40">
-        <v>29.80999946594238</v>
+        <v>31.27000045776367</v>
       </c>
       <c r="D40">
-        <v>30.03000068664551</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="E40">
-        <v>30.03000068664551</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="F40">
-        <v>29621100</v>
+        <v>21806500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>30.47999954223633</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>32.02000045776367</v>
+        <v>32.34000015258789</v>
       </c>
       <c r="C41">
-        <v>30.31999969482422</v>
+        <v>30.42000007629395</v>
       </c>
       <c r="D41">
-        <v>30.57999992370605</v>
+        <v>30.56999969482422</v>
       </c>
       <c r="E41">
-        <v>30.57999992370605</v>
+        <v>30.56999969482422</v>
       </c>
       <c r="F41">
-        <v>26662200</v>
+        <v>18221500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>30.75</v>
+        <v>30.20000076293945</v>
       </c>
       <c r="B42">
-        <v>32.97999954223633</v>
+        <v>30.70999908447266</v>
       </c>
       <c r="C42">
-        <v>29.96999931335449</v>
+        <v>28.75</v>
       </c>
       <c r="D42">
-        <v>32.84999847412109</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="E42">
-        <v>32.84999847412109</v>
+        <v>29.20000076293945</v>
       </c>
       <c r="F42">
-        <v>32097800</v>
+        <v>23496600</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>33.77000045776367</v>
+        <v>28.5</v>
       </c>
       <c r="B43">
-        <v>34.38000106811523</v>
+        <v>29.72999954223633</v>
       </c>
       <c r="C43">
-        <v>32.34999847412109</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="D43">
-        <v>33.4900016784668</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="E43">
-        <v>33.4900016784668</v>
+        <v>29.64999961853027</v>
       </c>
       <c r="F43">
-        <v>31396000</v>
+        <v>23531600</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>33.38999938964844</v>
+        <v>29.30999946594238</v>
       </c>
       <c r="B44">
-        <v>33.88000106811523</v>
+        <v>30.40999984741211</v>
       </c>
       <c r="C44">
-        <v>32.31999969482422</v>
+        <v>29.04999923706055</v>
       </c>
       <c r="D44">
-        <v>32.43000030517578</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="E44">
-        <v>32.43000030517578</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="F44">
-        <v>17633400</v>
+        <v>18802200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>31.19000053405762</v>
+        <v>29.55999946594238</v>
       </c>
       <c r="B45">
-        <v>32.38999938964844</v>
+        <v>30.32999992370605</v>
       </c>
       <c r="C45">
-        <v>31.02000045776367</v>
+        <v>28.71999931335449</v>
       </c>
       <c r="D45">
-        <v>31.48999977111816</v>
+        <v>29.17000007629395</v>
       </c>
       <c r="E45">
-        <v>31.48999977111816</v>
+        <v>29.17000007629395</v>
       </c>
       <c r="F45">
-        <v>19942500</v>
+        <v>21267200</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>31.32999992370605</v>
+        <v>29.18000030517578</v>
       </c>
       <c r="B46">
-        <v>32.29999923706055</v>
+        <v>30.04999923706055</v>
       </c>
       <c r="C46">
-        <v>31.27000045776367</v>
+        <v>28.63999938964844</v>
       </c>
       <c r="D46">
-        <v>31.85000038146973</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="E46">
-        <v>31.85000038146973</v>
+        <v>29.85000038146973</v>
       </c>
       <c r="F46">
-        <v>21806500</v>
+        <v>21975800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>32</v>
+        <v>30.8700008392334</v>
       </c>
       <c r="B47">
-        <v>32.34000015258789</v>
+        <v>34.13000106811523</v>
       </c>
       <c r="C47">
-        <v>30.42000007629395</v>
+        <v>30.45000076293945</v>
       </c>
       <c r="D47">
-        <v>30.56999969482422</v>
+        <v>34.02000045776367</v>
       </c>
       <c r="E47">
-        <v>30.56999969482422</v>
+        <v>34.02000045776367</v>
       </c>
       <c r="F47">
-        <v>18221500</v>
+        <v>68454300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>30.20000076293945</v>
+        <v>33.34999847412109</v>
       </c>
       <c r="B48">
-        <v>30.70999908447266</v>
+        <v>34.2400016784668</v>
       </c>
       <c r="C48">
-        <v>28.75</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="D48">
-        <v>29.20000076293945</v>
+        <v>33.81999969482422</v>
       </c>
       <c r="E48">
-        <v>29.20000076293945</v>
+        <v>33.81999969482422</v>
       </c>
       <c r="F48">
-        <v>23496600</v>
+        <v>48244300</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>28.5</v>
+        <v>34.02999877929688</v>
       </c>
       <c r="B49">
-        <v>29.72999954223633</v>
+        <v>34.13999938964844</v>
       </c>
       <c r="C49">
-        <v>28.39999961853027</v>
+        <v>32.56000137329102</v>
       </c>
       <c r="D49">
-        <v>29.64999961853027</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="E49">
-        <v>29.64999961853027</v>
+        <v>32.90000152587891</v>
       </c>
       <c r="F49">
-        <v>23531600</v>
+        <v>33547600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>29.30999946594238</v>
+        <v>32.91999816894531</v>
       </c>
       <c r="B50">
-        <v>30.40999984741211</v>
+        <v>33.52999877929688</v>
       </c>
       <c r="C50">
-        <v>29.04999923706055</v>
+        <v>31.5</v>
       </c>
       <c r="D50">
-        <v>29.85000038146973</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="E50">
-        <v>29.85000038146973</v>
+        <v>31.85000038146973</v>
       </c>
       <c r="F50">
-        <v>18802200</v>
+        <v>73059000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>29.55999946594238</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="B51">
-        <v>30.32999992370605</v>
+        <v>34.18000030517578</v>
       </c>
       <c r="C51">
-        <v>28.71999931335449</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="D51">
-        <v>29.17000007629395</v>
+        <v>34.13999938964844</v>
       </c>
       <c r="E51">
-        <v>29.17000007629395</v>
+        <v>34.13999938964844</v>
       </c>
       <c r="F51">
-        <v>21267200</v>
+        <v>31831200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>29.18000030517578</v>
+        <v>34.59000015258789</v>
       </c>
       <c r="B52">
-        <v>30.04999923706055</v>
+        <v>36.04000091552734</v>
       </c>
       <c r="C52">
-        <v>28.63999938964844</v>
+        <v>33.77999877929688</v>
       </c>
       <c r="D52">
-        <v>29.85000038146973</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="E52">
-        <v>29.85000038146973</v>
+        <v>34.08000183105469</v>
       </c>
       <c r="F52">
-        <v>21975800</v>
+        <v>38055500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>30.8700008392334</v>
+        <v>35</v>
       </c>
       <c r="B53">
-        <v>34.13000106811523</v>
+        <v>35.40999984741211</v>
       </c>
       <c r="C53">
-        <v>30.45000076293945</v>
+        <v>33.81000137329102</v>
       </c>
       <c r="D53">
-        <v>34.02000045776367</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="E53">
-        <v>34.02000045776367</v>
+        <v>34.18999862670898</v>
       </c>
       <c r="F53">
-        <v>68454300</v>
+        <v>27604700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>33.34999847412109</v>
+        <v>34.38000106811523</v>
       </c>
       <c r="B54">
-        <v>34.2400016784668</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="C54">
-        <v>32.02000045776367</v>
+        <v>32.77999877929688</v>
       </c>
       <c r="D54">
-        <v>33.81999969482422</v>
+        <v>33.31000137329102</v>
       </c>
       <c r="E54">
-        <v>33.81999969482422</v>
+        <v>33.31000137329102</v>
       </c>
       <c r="F54">
-        <v>48244300</v>
+        <v>18526500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>34.02999877929688</v>
+        <v>33.13000106811523</v>
       </c>
       <c r="B55">
-        <v>34.13999938964844</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="C55">
-        <v>32.56000137329102</v>
+        <v>32.27999877929688</v>
       </c>
       <c r="D55">
-        <v>32.90000152587891</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="E55">
-        <v>32.90000152587891</v>
+        <v>32.47999954223633</v>
       </c>
       <c r="F55">
-        <v>33547600</v>
+        <v>13236400</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>32.91999816894531</v>
+        <v>32.66999816894531</v>
       </c>
       <c r="B56">
-        <v>33.52999877929688</v>
+        <v>33.61000061035156</v>
       </c>
       <c r="C56">
-        <v>31.5</v>
+        <v>32.02000045776367</v>
       </c>
       <c r="D56">
-        <v>31.85000038146973</v>
+        <v>32.86000061035156</v>
       </c>
       <c r="E56">
-        <v>31.85000038146973</v>
+        <v>32.86000061035156</v>
       </c>
       <c r="F56">
-        <v>73059000</v>
+        <v>18586000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>32.11000061035156</v>
+        <v>32.95999908447266</v>
       </c>
       <c r="B57">
-        <v>34.18000030517578</v>
+        <v>33.27999877929688</v>
       </c>
       <c r="C57">
-        <v>32.11000061035156</v>
+        <v>30.04000091552734</v>
       </c>
       <c r="D57">
-        <v>34.13999938964844</v>
+        <v>30.17000007629395</v>
       </c>
       <c r="E57">
-        <v>34.13999938964844</v>
+        <v>30.17000007629395</v>
       </c>
       <c r="F57">
-        <v>31831200</v>
+        <v>24069900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>34.59000015258789</v>
+        <v>28.84000015258789</v>
       </c>
       <c r="B58">
-        <v>36.04000091552734</v>
+        <v>30.34000015258789</v>
       </c>
       <c r="C58">
-        <v>33.77999877929688</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="D58">
-        <v>34.08000183105469</v>
+        <v>29.82999992370605</v>
       </c>
       <c r="E58">
-        <v>34.08000183105469</v>
+        <v>29.82999992370605</v>
       </c>
       <c r="F58">
-        <v>38055500</v>
+        <v>22584700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>35</v>
+        <v>29.98999977111816</v>
       </c>
       <c r="B59">
-        <v>35.40999984741211</v>
+        <v>30.20000076293945</v>
       </c>
       <c r="C59">
-        <v>33.81000137329102</v>
+        <v>28.77000045776367</v>
       </c>
       <c r="D59">
-        <v>34.18999862670898</v>
+        <v>29.38999938964844</v>
       </c>
       <c r="E59">
-        <v>34.18999862670898</v>
+        <v>29.38999938964844</v>
       </c>
       <c r="F59">
-        <v>27604700</v>
+        <v>17545100</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>34.38000106811523</v>
+        <v>29.46999931335449</v>
       </c>
       <c r="B60">
-        <v>34.45000076293945</v>
+        <v>29.73999977111816</v>
       </c>
       <c r="C60">
-        <v>32.77999877929688</v>
+        <v>27.88999938964844</v>
       </c>
       <c r="D60">
-        <v>33.31000137329102</v>
+        <v>29.02000045776367</v>
       </c>
       <c r="E60">
-        <v>33.31000137329102</v>
+        <v>29.02000045776367</v>
       </c>
       <c r="F60">
-        <v>18526500</v>
+        <v>19078200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>33.13000106811523</v>
+        <v>28.17000007629395</v>
       </c>
       <c r="B61">
-        <v>33.65999984741211</v>
+        <v>28.71999931335449</v>
       </c>
       <c r="C61">
-        <v>32.27999877929688</v>
+        <v>27.67000007629395</v>
       </c>
       <c r="D61">
-        <v>32.47999954223633</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="E61">
-        <v>32.47999954223633</v>
+        <v>27.81999969482422</v>
       </c>
       <c r="F61">
-        <v>13236400</v>
+        <v>16746200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>32.66999816894531</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>33.61000061035156</v>
+        <v>28.26000022888184</v>
       </c>
       <c r="C62">
-        <v>32.02000045776367</v>
+        <v>26.27000045776367</v>
       </c>
       <c r="D62">
-        <v>32.86000061035156</v>
+        <v>26.54000091552734</v>
       </c>
       <c r="E62">
-        <v>32.86000061035156</v>
+        <v>26.54000091552734</v>
       </c>
       <c r="F62">
-        <v>18586000</v>
+        <v>23195900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>32.95999908447266</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="B63">
-        <v>33.27999877929688</v>
+        <v>27.59000015258789</v>
       </c>
       <c r="C63">
-        <v>30.04000091552734</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="D63">
-        <v>30.17000007629395</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="E63">
-        <v>30.17000007629395</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="F63">
-        <v>24069900</v>
+        <v>22064100</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>28.84000015258789</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="B64">
-        <v>30.34000015258789</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="C64">
-        <v>28.39999961853027</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="D64">
-        <v>29.82999992370605</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="E64">
-        <v>29.82999992370605</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="F64">
-        <v>22584700</v>
+        <v>16723600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>29.98999977111816</v>
+        <v>25.04999923706055</v>
       </c>
       <c r="B65">
-        <v>30.20000076293945</v>
+        <v>26.42000007629395</v>
       </c>
       <c r="C65">
-        <v>28.77000045776367</v>
+        <v>24.75</v>
       </c>
       <c r="D65">
-        <v>29.38999938964844</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>29.38999938964844</v>
+        <v>26</v>
       </c>
       <c r="F65">
-        <v>17545100</v>
+        <v>21409300</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>29.46999931335449</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="B66">
-        <v>29.73999977111816</v>
+        <v>27.05999946594238</v>
       </c>
       <c r="C66">
-        <v>27.88999938964844</v>
+        <v>25.30999946594238</v>
       </c>
       <c r="D66">
-        <v>29.02000045776367</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="E66">
-        <v>29.02000045776367</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="F66">
-        <v>19078200</v>
+        <v>15859600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>28.17000007629395</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="B67">
-        <v>28.71999931335449</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="C67">
-        <v>27.67000007629395</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="D67">
-        <v>27.81999969482422</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="E67">
-        <v>27.81999969482422</v>
+        <v>28.04999923706055</v>
       </c>
       <c r="F67">
-        <v>16746200</v>
+        <v>16103400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>28</v>
+        <v>28.34000015258789</v>
       </c>
       <c r="B68">
-        <v>28.26000022888184</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="C68">
-        <v>26.27000045776367</v>
+        <v>26.98999977111816</v>
       </c>
       <c r="D68">
-        <v>26.54000091552734</v>
+        <v>27.32999992370605</v>
       </c>
       <c r="E68">
-        <v>26.54000091552734</v>
+        <v>27.32999992370605</v>
       </c>
       <c r="F68">
-        <v>23195900</v>
+        <v>13085000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>26.48999977111816</v>
+        <v>27.71999931335449</v>
       </c>
       <c r="B69">
-        <v>27.59000015258789</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="C69">
-        <v>25.8799991607666</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="D69">
-        <v>26.78000068664551</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="E69">
-        <v>26.78000068664551</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="F69">
-        <v>22064100</v>
+        <v>13600600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>27.02000045776367</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="B70">
-        <v>27.02000045776367</v>
+        <v>27.57999992370605</v>
       </c>
       <c r="C70">
-        <v>25.89999961853027</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="D70">
-        <v>26.01000022888184</v>
+        <v>27.06999969482422</v>
       </c>
       <c r="E70">
-        <v>26.01000022888184</v>
+        <v>27.06999969482422</v>
       </c>
       <c r="F70">
-        <v>16723600</v>
+        <v>14360500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>25.04999923706055</v>
+        <v>26.95000076293945</v>
       </c>
       <c r="B71">
-        <v>26.42000007629395</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C71">
-        <v>24.75</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="E71">
-        <v>26</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="F71">
-        <v>21409300</v>
+        <v>15319800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>26.10000038146973</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="B72">
-        <v>27.05999946594238</v>
+        <v>28.14999961853027</v>
       </c>
       <c r="C72">
-        <v>25.30999946594238</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="D72">
-        <v>26.86000061035156</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="E72">
-        <v>26.86000061035156</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="F72">
-        <v>15859600</v>
+        <v>15813900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>26.88999938964844</v>
+        <v>27.82999992370605</v>
       </c>
       <c r="B73">
-        <v>28.14999961853027</v>
+        <v>28.07999992370605</v>
       </c>
       <c r="C73">
-        <v>26.70000076293945</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="D73">
-        <v>28.04999923706055</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="E73">
-        <v>28.04999923706055</v>
+        <v>27.20000076293945</v>
       </c>
       <c r="F73">
-        <v>16103400</v>
+        <v>10955100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>28.34000015258789</v>
+        <v>27</v>
       </c>
       <c r="B74">
-        <v>28.39999961853027</v>
+        <v>27.96999931335449</v>
       </c>
       <c r="C74">
-        <v>26.98999977111816</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="D74">
-        <v>27.32999992370605</v>
+        <v>27.28000068664551</v>
       </c>
       <c r="E74">
-        <v>27.32999992370605</v>
+        <v>27.28000068664551</v>
       </c>
       <c r="F74">
-        <v>13085000</v>
+        <v>10442300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>27.71999931335449</v>
+        <v>27.5</v>
       </c>
       <c r="B75">
-        <v>27.79000091552734</v>
+        <v>27.56999969482422</v>
       </c>
       <c r="C75">
-        <v>26.39999961853027</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="D75">
-        <v>26.80999946594238</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="E75">
-        <v>26.80999946594238</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="F75">
-        <v>13600600</v>
+        <v>11015000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>26.63999938964844</v>
+        <v>26.81999969482422</v>
       </c>
       <c r="B76">
-        <v>27.57999992370605</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C76">
-        <v>26.38999938964844</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="D76">
-        <v>27.06999969482422</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="E76">
-        <v>27.06999969482422</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="F76">
-        <v>14360500</v>
+        <v>10573800</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>26.95000076293945</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="B77">
-        <v>27.14999961853027</v>
+        <v>27.20999908447266</v>
       </c>
       <c r="C77">
-        <v>25.38999938964844</v>
+        <v>25.69000053405762</v>
       </c>
       <c r="D77">
-        <v>26.54999923706055</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="E77">
-        <v>26.54999923706055</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="F77">
-        <v>15319800</v>
+        <v>13394900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>26.6200008392334</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="B78">
-        <v>28.14999961853027</v>
+        <v>26.63999938964844</v>
       </c>
       <c r="C78">
-        <v>26.55999946594238</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="D78">
-        <v>27.82999992370605</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>27.82999992370605</v>
+        <v>26</v>
       </c>
       <c r="F78">
-        <v>15813900</v>
+        <v>16191800</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>27.82999992370605</v>
+        <v>28.40999984741211</v>
       </c>
       <c r="B79">
-        <v>28.07999992370605</v>
+        <v>28.70000076293945</v>
       </c>
       <c r="C79">
-        <v>27.13999938964844</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="D79">
-        <v>27.20000076293945</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="E79">
-        <v>27.20000076293945</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="F79">
-        <v>10955100</v>
+        <v>33493300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>27</v>
+        <v>25.95000076293945</v>
       </c>
       <c r="B80">
-        <v>27.96999931335449</v>
+        <v>28.90999984741211</v>
       </c>
       <c r="C80">
-        <v>26.70999908447266</v>
+        <v>25.86000061035156</v>
       </c>
       <c r="D80">
-        <v>27.28000068664551</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="E80">
-        <v>27.28000068664551</v>
+        <v>28.18000030517578</v>
       </c>
       <c r="F80">
-        <v>10442300</v>
+        <v>38697900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>27.5</v>
+        <v>29.59000015258789</v>
       </c>
       <c r="B81">
-        <v>27.56999969482422</v>
+        <v>30.25</v>
       </c>
       <c r="C81">
-        <v>26.56999969482422</v>
+        <v>28.60000038146973</v>
       </c>
       <c r="D81">
-        <v>26.6200008392334</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="E81">
-        <v>26.6200008392334</v>
+        <v>29.10000038146973</v>
       </c>
       <c r="F81">
-        <v>11015000</v>
+        <v>31882900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>26.81999969482422</v>
+        <v>29.56999969482422</v>
       </c>
       <c r="B82">
-        <v>26.8700008392334</v>
+        <v>29.77000045776367</v>
       </c>
       <c r="C82">
-        <v>25.8799991607666</v>
+        <v>26.95999908447266</v>
       </c>
       <c r="D82">
-        <v>26.48999977111816</v>
+        <v>27.39999961853027</v>
       </c>
       <c r="E82">
-        <v>26.48999977111816</v>
+        <v>27.39999961853027</v>
       </c>
       <c r="F82">
-        <v>10573800</v>
+        <v>25261400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>26.28000068664551</v>
+        <v>27.04999923706055</v>
       </c>
       <c r="B83">
-        <v>27.20999908447266</v>
+        <v>27.42000007629395</v>
       </c>
       <c r="C83">
-        <v>25.69000053405762</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="D83">
-        <v>25.88999938964844</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="E83">
-        <v>25.88999938964844</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="F83">
-        <v>13394900</v>
+        <v>17167500</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>25.65999984741211</v>
+        <v>26.32999992370605</v>
       </c>
       <c r="B84">
-        <v>26.63999938964844</v>
+        <v>26.45999908447266</v>
       </c>
       <c r="C84">
-        <v>25.01000022888184</v>
+        <v>24.86000061035156</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>24.98999977111816</v>
       </c>
       <c r="E84">
-        <v>26</v>
+        <v>24.98999977111816</v>
       </c>
       <c r="F84">
-        <v>16191800</v>
+        <v>21398100</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>28.40999984741211</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="B85">
-        <v>28.70000076293945</v>
+        <v>25.80999946594238</v>
       </c>
       <c r="C85">
-        <v>25.79000091552734</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="D85">
-        <v>25.89999961853027</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="E85">
-        <v>25.89999961853027</v>
+        <v>25.10000038146973</v>
       </c>
       <c r="F85">
-        <v>33493300</v>
+        <v>28190100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>25.95000076293945</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="B86">
-        <v>28.90999984741211</v>
+        <v>25.95999908447266</v>
       </c>
       <c r="C86">
-        <v>25.86000061035156</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="D86">
-        <v>28.18000030517578</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="E86">
-        <v>28.18000030517578</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="F86">
-        <v>38697900</v>
+        <v>25551100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>29.59000015258789</v>
+        <v>25.98999977111816</v>
       </c>
       <c r="B87">
-        <v>30.25</v>
+        <v>26.04999923706055</v>
       </c>
       <c r="C87">
-        <v>28.60000038146973</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="D87">
-        <v>29.10000038146973</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="E87">
-        <v>29.10000038146973</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="F87">
-        <v>31882900</v>
+        <v>19787800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>29.56999969482422</v>
+        <v>25.04000091552734</v>
       </c>
       <c r="B88">
-        <v>29.77000045776367</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="C88">
-        <v>26.95999908447266</v>
+        <v>23.70000076293945</v>
       </c>
       <c r="D88">
-        <v>27.39999961853027</v>
+        <v>23.76000022888184</v>
       </c>
       <c r="E88">
-        <v>27.39999961853027</v>
+        <v>23.76000022888184</v>
       </c>
       <c r="F88">
-        <v>25261400</v>
+        <v>18274700</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>27.04999923706055</v>
+        <v>23.69000053405762</v>
       </c>
       <c r="B89">
-        <v>27.42000007629395</v>
+        <v>24.52000045776367</v>
       </c>
       <c r="C89">
-        <v>25.8799991607666</v>
+        <v>23.53000068664551</v>
       </c>
       <c r="D89">
-        <v>26.40999984741211</v>
+        <v>24.22999954223633</v>
       </c>
       <c r="E89">
-        <v>26.40999984741211</v>
+        <v>24.22999954223633</v>
       </c>
       <c r="F89">
-        <v>17167500</v>
+        <v>13628500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>26.32999992370605</v>
+        <v>24.38999938964844</v>
       </c>
       <c r="B90">
-        <v>26.45999908447266</v>
+        <v>25.3700008392334</v>
       </c>
       <c r="C90">
-        <v>24.86000061035156</v>
+        <v>24.25</v>
       </c>
       <c r="D90">
-        <v>24.98999977111816</v>
+        <v>25.31999969482422</v>
       </c>
       <c r="E90">
-        <v>24.98999977111816</v>
+        <v>25.31999969482422</v>
       </c>
       <c r="F90">
-        <v>21398100</v>
+        <v>14008500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>24.79000091552734</v>
+        <v>25.54999923706055</v>
       </c>
       <c r="B91">
-        <v>25.80999946594238</v>
+        <v>26.06999969482422</v>
       </c>
       <c r="C91">
-        <v>24.39999961853027</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="D91">
-        <v>25.10000038146973</v>
+        <v>25.85000038146973</v>
       </c>
       <c r="E91">
-        <v>25.10000038146973</v>
+        <v>25.85000038146973</v>
       </c>
       <c r="F91">
-        <v>28190100</v>
+        <v>14579200</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>24.60000038146973</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="B92">
-        <v>25.95999908447266</v>
+        <v>26.75</v>
       </c>
       <c r="C92">
-        <v>24.45000076293945</v>
+        <v>25.39999961853027</v>
       </c>
       <c r="D92">
-        <v>25.8700008392334</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="E92">
-        <v>25.8700008392334</v>
+        <v>26.40999984741211</v>
       </c>
       <c r="F92">
-        <v>25551100</v>
+        <v>15087200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>25.98999977111816</v>
+        <v>26.06999969482422</v>
       </c>
       <c r="B93">
-        <v>26.04999923706055</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C93">
-        <v>24.90999984741211</v>
+        <v>25.72999954223633</v>
       </c>
       <c r="D93">
-        <v>25.05999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="E93">
-        <v>25.05999946594238</v>
+        <v>25.89999961853027</v>
       </c>
       <c r="F93">
-        <v>19787800</v>
+        <v>12605000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>25.04000091552734</v>
+        <v>26.01000022888184</v>
       </c>
       <c r="B94">
-        <v>25.38999938964844</v>
+        <v>26.8700008392334</v>
       </c>
       <c r="C94">
-        <v>23.70000076293945</v>
+        <v>25.79000091552734</v>
       </c>
       <c r="D94">
-        <v>23.76000022888184</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="E94">
-        <v>23.76000022888184</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="F94">
-        <v>18274700</v>
+        <v>11494600</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>23.69000053405762</v>
+        <v>26.56999969482422</v>
       </c>
       <c r="B95">
-        <v>24.52000045776367</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="C95">
-        <v>23.53000068664551</v>
+        <v>25.45000076293945</v>
       </c>
       <c r="D95">
-        <v>24.22999954223633</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="E95">
-        <v>24.22999954223633</v>
+        <v>26.1299991607666</v>
       </c>
       <c r="F95">
-        <v>13628500</v>
+        <v>17647500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>24.38999938964844</v>
+        <v>26.18000030517578</v>
       </c>
       <c r="B96">
-        <v>25.3700008392334</v>
+        <v>26.88999938964844</v>
       </c>
       <c r="C96">
-        <v>24.25</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="D96">
-        <v>25.31999969482422</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="E96">
-        <v>25.31999969482422</v>
+        <v>26.05999946594238</v>
       </c>
       <c r="F96">
-        <v>14008500</v>
+        <v>11419500</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>25.54999923706055</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="B97">
-        <v>26.06999969482422</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="C97">
-        <v>25.23999977111816</v>
+        <v>26.25</v>
       </c>
       <c r="D97">
-        <v>25.85000038146973</v>
+        <v>26.93000030517578</v>
       </c>
       <c r="E97">
-        <v>25.85000038146973</v>
+        <v>26.93000030517578</v>
       </c>
       <c r="F97">
-        <v>14579200</v>
+        <v>16291100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>25.8700008392334</v>
+        <v>27.25</v>
       </c>
       <c r="B98">
-        <v>26.75</v>
+        <v>27.6200008392334</v>
       </c>
       <c r="C98">
-        <v>25.39999961853027</v>
+        <v>26.76000022888184</v>
       </c>
       <c r="D98">
-        <v>26.40999984741211</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="E98">
-        <v>26.40999984741211</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="F98">
-        <v>15087200</v>
+        <v>12857900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>26.06999969482422</v>
+        <v>27.1200008392334</v>
       </c>
       <c r="B99">
-        <v>26.8700008392334</v>
+        <v>27.25</v>
       </c>
       <c r="C99">
-        <v>25.72999954223633</v>
+        <v>26.25</v>
       </c>
       <c r="D99">
-        <v>25.89999961853027</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="E99">
-        <v>25.89999961853027</v>
+        <v>26.39999961853027</v>
       </c>
       <c r="F99">
-        <v>12605000</v>
+        <v>11288500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>26.01000022888184</v>
+        <v>26.5</v>
       </c>
       <c r="B100">
-        <v>26.8700008392334</v>
+        <v>27.14999961853027</v>
       </c>
       <c r="C100">
-        <v>25.79000091552734</v>
+        <v>26.34000015258789</v>
       </c>
       <c r="D100">
-        <v>26.60000038146973</v>
+        <v>26.79999923706055</v>
       </c>
       <c r="E100">
-        <v>26.60000038146973</v>
+        <v>26.79999923706055</v>
       </c>
       <c r="F100">
-        <v>11494600</v>
+        <v>12463900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>26.56999969482422</v>
+        <v>26.77000045776367</v>
       </c>
       <c r="B101">
-        <v>26.70000076293945</v>
+        <v>26.85000038146973</v>
       </c>
       <c r="C101">
-        <v>25.45000076293945</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="D101">
-        <v>26.1299991607666</v>
+        <v>25.25</v>
       </c>
       <c r="E101">
-        <v>26.1299991607666</v>
+        <v>25.25</v>
       </c>
       <c r="F101">
-        <v>17647500</v>
+        <v>15164800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>26.18000030517578</v>
+        <v>25.18000030517578</v>
       </c>
       <c r="B102">
-        <v>26.88999938964844</v>
+        <v>25.8799991607666</v>
       </c>
       <c r="C102">
-        <v>25.96999931335449</v>
+        <v>24.78000068664551</v>
       </c>
       <c r="D102">
-        <v>26.05999946594238</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="E102">
-        <v>26.05999946594238</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="F102">
-        <v>11419500</v>
+        <v>11264700</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>26.51000022888184</v>
+        <v>25.59000015258789</v>
       </c>
       <c r="B103">
-        <v>27.46999931335449</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="C103">
-        <v>26.25</v>
+        <v>24.07999992370605</v>
       </c>
       <c r="D103">
-        <v>26.93000030517578</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="E103">
-        <v>26.93000030517578</v>
+        <v>24.15999984741211</v>
       </c>
       <c r="F103">
-        <v>16291100</v>
+        <v>21528800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>27.25</v>
+        <v>24.20000076293945</v>
       </c>
       <c r="B104">
-        <v>27.6200008392334</v>
+        <v>24.79000091552734</v>
       </c>
       <c r="C104">
-        <v>26.76000022888184</v>
+        <v>23.15999984741211</v>
       </c>
       <c r="D104">
-        <v>27.14999961853027</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="E104">
-        <v>27.14999961853027</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="F104">
-        <v>12857900</v>
+        <v>19676200</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>27.1200008392334</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="B105">
-        <v>27.25</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="C105">
-        <v>26.25</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="D105">
-        <v>26.39999961853027</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="E105">
-        <v>26.39999961853027</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="F105">
-        <v>11288500</v>
+        <v>20087100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>26.5</v>
+        <v>24.46999931335449</v>
       </c>
       <c r="B106">
-        <v>27.14999961853027</v>
+        <v>24.69000053405762</v>
       </c>
       <c r="C106">
-        <v>26.34000015258789</v>
+        <v>24</v>
       </c>
       <c r="D106">
-        <v>26.79999923706055</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="E106">
-        <v>26.79999923706055</v>
+        <v>24.6299991607666</v>
       </c>
       <c r="F106">
-        <v>12463900</v>
+        <v>10783600</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>26.77000045776367</v>
+        <v>24.45999908447266</v>
       </c>
       <c r="B107">
-        <v>26.85000038146973</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="C107">
-        <v>25.14999961853027</v>
+        <v>24.10000038146973</v>
       </c>
       <c r="D107">
-        <v>25.25</v>
+        <v>24.96999931335449</v>
       </c>
       <c r="E107">
-        <v>25.25</v>
+        <v>24.96999931335449</v>
       </c>
       <c r="F107">
-        <v>15164800</v>
+        <v>10461800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>25.18000030517578</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="B108">
-        <v>25.8799991607666</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="C108">
-        <v>24.78000068664551</v>
+        <v>24.98999977111816</v>
       </c>
       <c r="D108">
-        <v>25.26000022888184</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="E108">
-        <v>25.26000022888184</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F108">
-        <v>11264700</v>
+        <v>23850100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>25.59000015258789</v>
+        <v>25.40999984741211</v>
       </c>
       <c r="B109">
-        <v>26.1200008392334</v>
+        <v>26.02000045776367</v>
       </c>
       <c r="C109">
-        <v>24.07999992370605</v>
+        <v>25.1299991607666</v>
       </c>
       <c r="D109">
-        <v>24.15999984741211</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="E109">
-        <v>24.15999984741211</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="F109">
-        <v>21528800</v>
+        <v>16766900</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>24.20000076293945</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="B110">
-        <v>24.79000091552734</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="C110">
-        <v>23.15999984741211</v>
+        <v>25.5</v>
       </c>
       <c r="D110">
-        <v>24.20999908447266</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="E110">
-        <v>24.20999908447266</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="F110">
-        <v>19676200</v>
+        <v>13084000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>24.6299991607666</v>
+        <v>26.04000091552734</v>
       </c>
       <c r="B111">
-        <v>25.65999984741211</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="C111">
-        <v>24.39999961853027</v>
+        <v>25.81999969482422</v>
       </c>
       <c r="D111">
-        <v>24.65999984741211</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="E111">
-        <v>24.65999984741211</v>
+        <v>26.92000007629395</v>
       </c>
       <c r="F111">
-        <v>20087100</v>
+        <v>15050200</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>24.46999931335449</v>
+        <v>28.03000068664551</v>
       </c>
       <c r="B112">
-        <v>24.69000053405762</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="C112">
-        <v>24</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="D112">
-        <v>24.6299991607666</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="E112">
-        <v>24.6299991607666</v>
+        <v>27.77000045776367</v>
       </c>
       <c r="F112">
-        <v>10783600</v>
+        <v>21569200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>24.45999908447266</v>
+        <v>27.5</v>
       </c>
       <c r="B113">
-        <v>25.01000022888184</v>
+        <v>27.57999992370605</v>
       </c>
       <c r="C113">
-        <v>24.10000038146973</v>
+        <v>26.65999984741211</v>
       </c>
       <c r="D113">
-        <v>24.96999931335449</v>
+        <v>26.96999931335449</v>
       </c>
       <c r="E113">
-        <v>24.96999931335449</v>
+        <v>26.96999931335449</v>
       </c>
       <c r="F113">
-        <v>10461800</v>
+        <v>12430100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>25.01000022888184</v>
+        <v>27.03000068664551</v>
       </c>
       <c r="B114">
-        <v>26.53000068664551</v>
+        <v>28.82999992370605</v>
       </c>
       <c r="C114">
-        <v>24.98999977111816</v>
+        <v>26.48999977111816</v>
       </c>
       <c r="D114">
-        <v>26.46999931335449</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="E114">
-        <v>26.46999931335449</v>
+        <v>28.39999961853027</v>
       </c>
       <c r="F114">
-        <v>23850100</v>
+        <v>20703700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>25.40999984741211</v>
+        <v>28</v>
       </c>
       <c r="B115">
-        <v>26.02000045776367</v>
+        <v>28.38999938964844</v>
       </c>
       <c r="C115">
-        <v>25.1299991607666</v>
+        <v>26.78000068664551</v>
       </c>
       <c r="D115">
-        <v>25.71999931335449</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="E115">
-        <v>25.71999931335449</v>
+        <v>26.82999992370605</v>
       </c>
       <c r="F115">
-        <v>16766900</v>
+        <v>17465400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>25.8700008392334</v>
+        <v>27.05999946594238</v>
       </c>
       <c r="B116">
-        <v>26.46999931335449</v>
+        <v>27.10000038146973</v>
       </c>
       <c r="C116">
-        <v>25.5</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="D116">
-        <v>26.07999992370605</v>
+        <v>25.19000053405762</v>
       </c>
       <c r="E116">
-        <v>26.07999992370605</v>
+        <v>25.19000053405762</v>
       </c>
       <c r="F116">
-        <v>13084000</v>
+        <v>21933300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>26.04000091552734</v>
+        <v>25.25</v>
       </c>
       <c r="B117">
-        <v>27.10000038146973</v>
+        <v>25.88999938964844</v>
       </c>
       <c r="C117">
-        <v>25.81999969482422</v>
+        <v>24.86000061035156</v>
       </c>
       <c r="D117">
-        <v>26.92000007629395</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="E117">
-        <v>26.92000007629395</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="F117">
-        <v>15050200</v>
+        <v>14061600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>28.03000068664551</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="B118">
-        <v>28.39999961853027</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="C118">
-        <v>27.10000038146973</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="D118">
-        <v>27.77000045776367</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="E118">
-        <v>27.77000045776367</v>
+        <v>25.56999969482422</v>
       </c>
       <c r="F118">
-        <v>21569200</v>
+        <v>9885400</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>27.5</v>
+        <v>25.36000061035156</v>
       </c>
       <c r="B119">
-        <v>27.57999992370605</v>
+        <v>25.38999938964844</v>
       </c>
       <c r="C119">
-        <v>26.65999984741211</v>
+        <v>24.1200008392334</v>
       </c>
       <c r="D119">
-        <v>26.96999931335449</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="E119">
-        <v>26.96999931335449</v>
+        <v>24.31999969482422</v>
       </c>
       <c r="F119">
-        <v>12430100</v>
+        <v>14693800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>27.03000068664551</v>
+        <v>24.39999961853027</v>
       </c>
       <c r="B120">
-        <v>28.82999992370605</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="C120">
-        <v>26.48999977111816</v>
+        <v>24.17000007629395</v>
       </c>
       <c r="D120">
-        <v>28.39999961853027</v>
+        <v>24.3700008392334</v>
       </c>
       <c r="E120">
-        <v>28.39999961853027</v>
+        <v>24.3700008392334</v>
       </c>
       <c r="F120">
-        <v>20703700</v>
+        <v>9895800</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>28</v>
+        <v>24.01000022888184</v>
       </c>
       <c r="B121">
-        <v>28.38999938964844</v>
+        <v>25</v>
       </c>
       <c r="C121">
-        <v>26.78000068664551</v>
+        <v>23.80999946594238</v>
       </c>
       <c r="D121">
-        <v>26.82999992370605</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="E121">
-        <v>26.82999992370605</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="F121">
-        <v>17465400</v>
+        <v>13580800</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>27.05999946594238</v>
+        <v>25.05999946594238</v>
       </c>
       <c r="B122">
-        <v>27.10000038146973</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="C122">
-        <v>25.14999961853027</v>
+        <v>24.64999961853027</v>
       </c>
       <c r="D122">
-        <v>25.19000053405762</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="E122">
-        <v>25.19000053405762</v>
+        <v>26.09000015258789</v>
       </c>
       <c r="F122">
-        <v>21933300</v>
+        <v>15150400</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>25.25</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="B123">
-        <v>25.88999938964844</v>
+        <v>27.36000061035156</v>
       </c>
       <c r="C123">
-        <v>24.86000061035156</v>
+        <v>26.3700008392334</v>
       </c>
       <c r="D123">
-        <v>25.54000091552734</v>
+        <v>27.19000053405762</v>
       </c>
       <c r="E123">
-        <v>25.54000091552734</v>
+        <v>27.19000053405762</v>
       </c>
       <c r="F123">
-        <v>14061600</v>
+        <v>17174800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>25.56999969482422</v>
+        <v>27.19000053405762</v>
       </c>
       <c r="B124">
-        <v>25.8700008392334</v>
+        <v>28.27000045776367</v>
       </c>
       <c r="C124">
-        <v>24.95999908447266</v>
+        <v>27.17000007629395</v>
       </c>
       <c r="D124">
-        <v>25.56999969482422</v>
+        <v>27.64999961853027</v>
       </c>
       <c r="E124">
-        <v>25.56999969482422</v>
+        <v>27.64999961853027</v>
       </c>
       <c r="F124">
-        <v>9885400</v>
+        <v>16057800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>25.36000061035156</v>
+        <v>27.90999984741211</v>
       </c>
       <c r="B125">
-        <v>25.38999938964844</v>
+        <v>29.95999908447266</v>
       </c>
       <c r="C125">
-        <v>24.1200008392334</v>
+        <v>27.8700008392334</v>
       </c>
       <c r="D125">
-        <v>24.31999969482422</v>
+        <v>29.78000068664551</v>
       </c>
       <c r="E125">
-        <v>24.31999969482422</v>
+        <v>29.78000068664551</v>
       </c>
       <c r="F125">
-        <v>14693800</v>
+        <v>28217500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>24.39999961853027</v>
+        <v>31.97999954223633</v>
       </c>
       <c r="B126">
-        <v>24.84000015258789</v>
+        <v>33.65999984741211</v>
       </c>
       <c r="C126">
-        <v>24.17000007629395</v>
+        <v>31.79000091552734</v>
       </c>
       <c r="D126">
-        <v>24.3700008392334</v>
+        <v>33.59000015258789</v>
       </c>
       <c r="E126">
-        <v>24.3700008392334</v>
+        <v>33.59000015258789</v>
       </c>
       <c r="F126">
-        <v>9895800</v>
+        <v>85304200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>24.01000022888184</v>
+        <v>33.90999984741211</v>
       </c>
       <c r="B127">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C127">
-        <v>23.80999946594238</v>
+        <v>31.30999946594238</v>
       </c>
       <c r="D127">
-        <v>24.60000038146973</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="E127">
-        <v>24.60000038146973</v>
+        <v>31.80999946594238</v>
       </c>
       <c r="F127">
-        <v>13580800</v>
+        <v>76804600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>25.05999946594238</v>
+        <v>31.8700008392334</v>
       </c>
       <c r="B128">
-        <v>26.51000022888184</v>
+        <v>32.65000152587891</v>
       </c>
       <c r="C128">
-        <v>24.64999961853027</v>
+        <v>30.77000045776367</v>
       </c>
       <c r="D128">
-        <v>26.09000015258789</v>
+        <v>31.23999977111816</v>
       </c>
       <c r="E128">
-        <v>26.09000015258789</v>
+        <v>31.23999977111816</v>
       </c>
       <c r="F128">
-        <v>15150400</v>
+        <v>40361600</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>26.46999931335449</v>
+        <v>31.10000038146973</v>
       </c>
       <c r="B129">
-        <v>27.36000061035156</v>
+        <v>32.88999938964844</v>
       </c>
       <c r="C129">
-        <v>26.3700008392334</v>
+        <v>30.95999908447266</v>
       </c>
       <c r="D129">
-        <v>27.19000053405762</v>
+        <v>32.77999877929688</v>
       </c>
       <c r="E129">
-        <v>27.19000053405762</v>
+        <v>32.77999877929688</v>
       </c>
       <c r="F129">
-        <v>17174800</v>
+        <v>18327665</v>
       </c>
     </row>
   </sheetData>
